--- a/result/Daily LOKT Premium Septembre 2022- FR001400AV80result.xlsx
+++ b/result/Daily LOKT Premium Septembre 2022- FR001400AV80result.xlsx
@@ -592,7 +592,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.0227</t>
+          <t>0.02274</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EURO STOXX 50 Price EUR</t>
+          <t>Bloomberg Luxury 2021 Decrement 50 point Index</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>0.55% environ% environ</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>03/06/2022, 10/06/2022, 23/09/2022</t>
+          <t>03/06/2022, 10/06/2022, 17/06/2022, 24/06/2022, 01/07/2022, 08/07/2022, 15/07/2022, 22/07/2022, 29/07/2022, 05/08/2022, 12/08/2022, 19/08/2022, 26/08/2022, 02/09/2022,  09/09/2022, 16/09/2022, 23/09/2022</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>non</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25/09/2023, 25/09/2023, 25/09/2023, 26/09/2023, 27/09/2023, 28/09/2023, 29/09/2023, 02/10/2023, 02/10/2023, 02/10/2023, 03/10/2023, 04/10/2023, 05/10/2023, 06/10/2023, 09/10/2023, 09/10/2023, 09/10/2023, 10/10/2023, 11/10/2023, 12/10/2023, 13/10/2023, 16/10/2023, 16/10/2023, 16/10/2023, 17/10/2023, 18/10/2023, 19/10/2023, 20/10/2023, 23/10/2023, 23/10/2023, 23/10/2023, 24/10/2023, 25/10/2023, 26/10/2023, 27/10/2023, 30/10/2023, 30/10/2023, 30/10/2023, 31/10/2023, 01/11/2023, 02/11/2023, 03/11/2023, 06/11/2023, 06/11/2023, 06/11/2023, 07/11/2023, 08/11/2023, 09/11/2023, 10/11/2023, 13/11/2023, 13/11/2023, 13/11/2023, 14/11/2023, 15/11/2023, 16/11/2023, 17/11/2023, 20/11/2023, 20/11/2023, 20/11/2023, 21/11/2023, 22/11/2023, 23/11/2023, 24/11/2023, 27/11/2023, 27/11/2023, 27/11/2023, 28/11/2023, 29/11/2023, 30/11/2023, 01/12/2023, 04/12/2023, 04/12/2023, 04/12/2023, 05/12/2023, 06/12/2023, 07/12/2023, 08/12/2023, 11/12/2023, 11/12/2023, 11/12/2023, 12/12/2023, 13/12/2023, 14/12/2023, 15/12/2023, 18/12/2023, 18/12/2023, 18/12/2023, 19/12/2023, 20/12/2023, 21/12/2023, 22/12/2023, 27/12/2023, 27/12/2023, 27/12/2023, 27/12/2023, 27/12/2023, 28/12/2023, 29/12/2023, 02/01/2024, 02/01/2024, 02/01/2024, 02/01/2024, 03/01/2024, 04/01/2024, 05/01/2024, 08/01/2024, 08/01/2024, 08/01/2024, 09/01/2024, 10/01/2024, 11/01/2024, 12/01/2024, 15/01/2024, 15/01/2024, 15/01/2024, 16/01/2024, 17/01/2024, 18/01/2024, 19/01/2024, 22/01/2024, 22/01/2024, 22/01/2024, 23/01/2024, 24/01/2024, 25/01/2024, 26/01/2024, 29/01/2024, 29/01/2024, 29/01/2024, 30/01/2024, 31/01/2024, 01/02/2024, 02/02/2024, 05/02/2024, 05/02/2024, 05/02/2024, 06/02/2024, 07/02/2024, 08/02/2024, 09/02/2024, 12/02/2024, 12/02/2024, 12/02/2024, 13/02/2024, 14/02/2024, 15/02/2024, 16/02/2024, 19/02/2024, 19/02/2024, 19/02/2024, 20/02/2024, 21/02/2024, 22/02/2024, 23/02/2024, 26/02/2024, 26/02/2024, 26/02/2024, 27/02/2024, 28/02/2024, 29/02/2024, 01/03/2024, 04/03/2024, 04/03/2024, 04/03/2024, 05/03/2024, 06/03/2024, 07/03/2024, 08/03/2024, 11/03/2024, 11/03/2024, 11/03/2024, 12/03/2024, 13/03/2024, 14/03/2024, 15/03/2024, 18/03/2024, 18/03/2024, 18/03/2024, 19/03/2024, 20/03/2024, 21/03/2024, 22/03/2024, 25/03/2024, 25/03/2024, 25/03/2024, 26/03/2024, 27/03/2024, 28/03/2024, 02/04/2024, 02/04/2024, 02/04/2024, 02/04/2024, 02/04/2024, 03/04/2024, 04/04/2024, 05/04/2024, 08/04/2024, 08/04/2024, 08/04/2024, 09/04/2024, 10/04/2024, 11/04/2024, 12/04/2024, 15/04/2024, 15/04/2024, 15/04/2024, 16/04/2024, 17/04/2024, 18/04/2024, 19/04/2024, 22/04/2024, 22/04/2024, 22/04/2024, 23/04/2024, 24/04/2024, 25/04/2024, 26/04/2024, 29/04/2024, 29/04/2024, 29/04/2024, 30/04/2024, 02/05/2024, 02/05/2024, 03/05/2024, 06/05/2024, 06/05/2024, 06/05/2024, 07/05/2024, 08/05/2024, 09/05/2024, 10/05/2024, 13/05/2024, 13/05/2024, 13/05/2024, 14/05/2024, 15/05/2024, 16/05/2024, 17/05/2024, 20/05/2024, 20/05/2024, 20/05/2024, 21/05/2024, 22/05/2024, 23/05/2024, 24/05/2024, 27/05/2024, 27/05/2024, 27/05/2024, 28/05/2024, 29/05/2024, 30/05/2024, 31/05/2024, 03/06/2024, 03/06/2024, 03/06/2024, 04/06/2024, 05/06/2024, 06/06/2024, 07/06/2024, 10/06/2024, 10/06/2024, 10/06/2024, 11/06/2024, 12/06/2024, 13/06/2024, 14/06/2024, 17/06/2024, 17/06/2024, 17/06/2024, 18/06/2024, 19/06/2024, 20/06/2024, 21/06/2024, 24/06/2024, 24/06/2024, 24/06/2024, 25/06/2024, 26/06/2024, 27/06/2024, 28/06/2024, 01/07/2024, 01/07/2024, 01/07/2024, 02/07/2024, 03/07/2024, 04/07/2024, 05/07/2024, 08/07/2024, 08/07/2024, 08/07/2024, 09/07/2024, 10/07/2024, 11/07/2024, 12/07/2024, 15/07/2024, 15/07/2024, 15/07/2024, 16/07/2024, 17/07/2024, 18/07/2024, 19/07/2024, 22/07/2024, 22/07/2024, 22/07/2024, 23/07/2024, 24/07/2024, 25/07/2024, 26/07/2024, 29/07/2024, 29/07/2024, 29/07/2024, 30/07/2024, 31/07/2024, 01/08/2024, 02/08/2024, 05/08/2024, 05/08/2024, 05/08/2024, 06/08/2024, 07/08/2024, 08/08/2024, 09/08/2024, 12/08/2024, 12/08/2024, 12/08/2024, 13/08/2024, 14/08/2024, 15/08/2024, 16/08/2024, 19/08/2024, 19/08/2024, 19/08/2024, 20/08/2024, 21/08/2024, 22/08/2024, 23/08/2024, 26/08/2024, 26/08/2024, 26/08/2024, 27/08/2024, 28/08/2024, 29/08/2024, 30/08/2024, 02/09/2024, 02/09/2024, 02/09/2024, 03/09/2024, 04/09/2024, 05/09/2024, 06/09/2024, 09/09/2024, 09/09/2024, 09/09/2024, 10/09/2024, 11/09/2024, 12/09/2024, 13/09/2024, 16/09/2024, 16/09/2024, 16/09/2024, 17/09/2024, 18/09/2024, 19/09/2024, 20/09/2024, 23/09/2024, 23/09/2024, 23/09/2024, 24/09/2024, 25/09/2024, 26/09/2024, 27/09/2024, 30/09/2024, 30/09/2024, 30/09/2024, 01/10/2024, 02/10/2024, 03/10/2024, 04/10/2024, 07/10/2024, 07/10/2024, 07/10/2024, 08/10/2024, 09/10/2024, 10/10/2024, 11/10/2024, 14/10/2024, 14/10/2024, 14/10/2024, 15/10/2024, 16/10/2024, 17/10/2024, 18/10/2024, 21/10/2024, 21/10/2024, 21/10/2024, 22/10/2024, 23/10/2024, 24/10/2024, 25/10/2024, 28/10/2024, 28/10/2024, 28/10/2024, 29/10/2024, 30/10/2024, 31/10/2024, 01/11/2024, 04/11/2024, 04/11/2024, 04/11/2024, 05/11/2024, 06/11/2024, 07/11/2024, 08/11/2024, 11/11/2024, 11/11/2024, 11/11/2024, 12/11/2024, 13/11/2024, 14/11/2024, 15/11/2024, 18/11/2024, 18/11/2024, 18/11/2024, 19/11/2024, 20/11/2024, 21/11/2024, 22/11/2024, 25/11/2024, 25/11/2024, 25/11/2024, 26/11/2024, 27/11/2024, 28/11/2024, 29/11/2024, 02/12/2024, 02/12/2024, 02/12/2024, 03/12/2024, 04/12/2024, 05/12/2024, 06/12/2024, 09/12/2024, 09/12/2024, 09/12/2024, 10/12/2024, 11/12/2024, 12/12/2024, 13/12/2024, 16/12/2024, 16/12/2024, 16/12/2024, 17/12/2024, 18/12/2024, 19/12/2024, 20/12/2024, 23/12/2024, 23/12/2024, 23/12/2024, 24/12/2024, 27/12/2024, 27/12/2024, 27/12/2024, 30/12/2024, 30/12/2024, 30/12/2024, 31/12/2024, 02/01/2025, 02/01/2025, 03/01/2025, 06/01/2025, 06/01/2025, 06/01/2025, 07/01/2025, 08/01/2025, 09/01/2025, 10/01/2025, 13/01/2025, 13/01/2025, 13/01/2025, 14/01/2025, 15/01/2025, 16/01/2025, 17/01/2025, 20/01/2025, 20/01/2025, 20/01/2025, 21/01/2025, 22/01/2025, 23/01/2025, 24/01/2025, 27/01/2025, 27/01/2025, 27/01/2025, 28/01/2025, 29/01/2025, 30/01/2025, 31/01/2025, 03/02/2025, 03/02/2025, 03/02/2025, 04/02/2025, 05/02/2025, 06/02/2025, 07/02/2025, 10/02/2025, 10/02/2025, 10/02/2025, 11/02/2025, 12/02/2025, 13/02/2025, 14/02/2025, 17/02/2025, 17/02/2025, 17/02/2025, 18/02/2025, 19/02/2025, 20/02/2025, 21/02/2025, 24/02/2025, 24/02/2025, 24/02/2025, 25/02/2025, 26/02/2025, 27/02/2025, 28/02/2025, 03/03/2025, 03/03/2025, 03/03/2025, 04/03/2025, 05/03/2025, 06/03/2025, 07/03/2025, 10/03/2025, 10/03/2025, 10/03/2025, 11/03/2025, 12/03/2025, 13/03/2025, 14/03/2025, 17/03/2025, 17/03/2025, 17/03/2025, 18/03/2025, 19/03/2025, 20/03/2025, 21/03/2025, 24/03/2025, 24/03/2025, 24/03/2025, 25/03/2025, 26/03/2025, 27/03/2025, 28/03/2025, 31/03/2025, 31/03/2025, 31/03/2025, 01/04/2025, 02/04/2025, 03/04/2025, 04/04/2025, 07/04/2025, 07/04/2025, 07/04/2025, 08/04/2025, 09/04/2025, 10/04/2025, 11/04/2025, 14/04/2025, 14/04/2025, 14/04/2025, 15/04/2025, 16/04/2025, 17/04/2025, 22/04/2025, 22/04/2025, 22/04/2025, 22/04/2025, 22/04/2025, 23/04/2025, 24/04/2025, 25/04/2025, 28/04/2025, 28/04/2025, 28/04/2025, 29/04/2025, 30/04/2025, 02/05/2025, 02/05/2025, 05/05/2025, 05/05/2025, 05/05/2025, 06/05/2025, 07/05/2025, 08/05/2025, 09/05/2025, 12/05/2025, 12/05/2025, 12/05/2025, 13/05/2025, 14/05/2025, 15/05/2025, 16/05/2025, 19/05/2025, 19/05/2025, 19/05/2025, 20/05/2025, 21/05/2025, 22/05/2025, 23/05/2025, 26/05/2025, 26/05/2025, 26/05/2025, 27/05/2025, 28/05/2025, 29/05/2025, 30/05/2025, 02/06/2025, 02/06/2025, 02/06/2025, 03/06/2025, 04/06/2025, 05/06/2025, 06/06/2025, 09/06/2025, 09/06/2025, 09/06/2025, 10/06/2025, 11/06/2025, 12/06/2025, 13/06/2025, 16/06/2025, 16/06/2025, 16/06/2025, 17/06/2025, 18/06/2025, 19/06/2025, 20/06/2025, 23/06/2025, 23/06/2025, 23/06/2025, 24/06/2025, 25/06/2025, 26/06/2025, 27/06/2025, 30/06/2025, 30/06/2025, 30/06/2025, 01/07/2025, 02/07/2025, 03/07/2025, 04/07/2025, 07/07/2025, 07/07/2025, 07/07/2025, 08/07/2025, 09/07/2025, 10/07/2025, 11/07/2025, 14/07/2025, 14/07/2025, 14/07/2025, 15/07/2025, 16/07/2025, 17/07/2025, 18/07/2025, 21/07/2025, 21/07/2025, 21/07/2025, 22/07/2025, 23/07/2025, 24/07/2025, 25/07/2025, 28/07/2025, 28/07/2025, 28/07/2025, 29/07/2025, 30/07/2025, 31/07/2025, 01/08/2025, 04/08/2025, 04/08/2025, 04/08/2025, 05/08/2025, 06/08/2025, 07/08/2025, 08/08/2025, 11/08/2025, 11/08/2025, 11/08/2025, 12/08/2025, 13/08/2025, 14/08/2025, 15/08/2025, 18/08/2025, 18/08/2025, 18/08/2025, 19/08/2025, 20/08/2025, 21/08/2025, 22/08/2025, 25/08/2025, 25/08/2025, 25/08/2025, 26/08/2025, 27/08/2025, 28/08/2025, 29/08/2025, 01/09/2025, 01/09/2025, 01/09/2025, 02/09/2025, 03/09/2025, 04/09/2025, 05/09/2025, 08/09/2025, 08/09/2025, 08/09/2025, 09/09/2025, 10/09/2025, 11/09/2025, 12/09/2025, 15/09/2025, 15/09/2025, 15/09/2025, 16/09/2025, 17/09/2025, 18/09/2025, 19/09/2025, 22/09/2025, 22/09/2025, 22/09/2025, 23/09/2025, 24/09/2025, 25/09/2025, 26/09/2025, 29/09/2025, 29/09/2025, 29/09/2025, 30/09/2025, 01/10/2025, 02/10/2025, 03/10/2025, 06/10/2025, 06/10/2025, 06/10/2025, 07/10/2025, 08/10/2025, 09/10/2025, 10/10/2025, 13/10/2025, 13/10/2025, 13/10/2025, 14/10/2025, 15/10/2025, 16/10/2025, 17/10/2025, 20/10/2025, 20/10/2025, 20/10/2025, 21/10/2025, 22/10/2025, 23/10/2025, 24/10/2025, 27/10/2025, 27/10/2025, 27/10/2025, 28/10/2025, 29/10/2025, 30/10/2025, 31/10/2025, 03/11/2025, 03/11/2025, 03/11/2025, 04/11/2025, 05/11/2025, 06/11/2025, 07/11/2025, 10/11/2025, 10/11/2025, 10/11/2025, 11/11/2025, 12/11/2025, 13/11/2025, 14/11/2025, 17/11/2025, 17/11/2025, 17/11/2025, 18/11/2025, 19/11/2025, 20/11/2025, 21/11/2025, 24/11/2025, 24/11/2025, 24/11/2025, 25/11/2025, 26/11/2025, 27/11/2025, 28/11/2025, 01/12/2025, 01/12/2025, 01/12/2025, 02/12/2025, 03/12/2025, 04/12/2025, 05/12/2025, 08/12/2025, 08/12/2025, 08/12/2025, 09/12/2025, 10/12/2025, 11/12/2025, 12/12/2025, 15/12/2025, 15/12/2025, 15/12/2025, 16/12/2025, 17/12/2025, 18/12/2025, 19/12/2025, 22/12/2025, 22/12/2025, 22/12/2025, 23/12/2025, 24/12/2025, 29/12/2025, 29/12/2025, 29/12/2025, 29/12/2025, 29/12/2025, 30/12/2025, 31/12/2025, 02/01/2026, 02/01/2026, 05/01/2026, 05/01/2026, 05/01/2026, 06/01/2026, 07/01/2026, 08/01/2026, 09/01/2026, 12/01/2026, 12/01/2026, 12/01/2026, 13/01/2026, 14/01/2026, 15/01/2026, 16/01/2026, 19/01/2026, 19/01/2026, 19/01/2026, 20/01/2026, 21/01/2026, 22/01/2026, 23/01/2026, 26/01/2026, 26/01/2026, 26/01/2026, 27/01/2026, 28/01/2026, 29/01/2026, 30/01/2026, 02/02/2026, 02/02/2026, 02/02/2026, 03/02/2026, 04/02/2026, 05/02/2026, 06/02/2026, 09/02/2026, 09/02/2026, 09/02/2026, 10/02/2026, 11/02/2026, 12/02/2026, 13/02/2026, 16/02/2026, 16/02/2026, 16/02/2026, 17/02/2026, 18/02/2026, 19/02/2026, 20/02/2026, 23/02/2026, 23/02/2026, 23/02/2026, 24/02/2026, 25/02/2026, 26/02/2026, 27/02/2026, 02/03/2026, 02/03/2026, 02/03/2026, 03/03/2026, 04/03/2026, 05/03/2026, 06/03/2026, 09/03/2026, 09/03/2026, 09/03/2026, 10/03/2026, 11/03/2026, 12/03/2026, 13/03/2026, 16/03/2026, 16/03/2026, 16/03/2026, 17/03/2026, 18/03/2026, 19/03/2026, 20/03/2026, 23/03/2026, 23/03/2026, 23/03/2026, 24/03/2026, 25/03/2026, 26/03/2026, 27/03/2026, 30/03/2026, 30/03/2026, 30/03/2026, 31/03/2026, 01/04/2026, 02/04/2026, 07/04/2026, 07/04/2026, 07/04/2026, 07/04/2026, 07/04/2026, 08/04/2026, 09/04/2026, 10/04/2026, 13/04/2026, 13/04/2026, 13/04/2026, 14/04/2026, 15/04/2026, 16/04/2026, 17/04/2026, 20/04/2026, 20/04/2026, 20/04/2026, 21/04/2026, 22/04/2026, 23/04/2026, 24/04/2026, 27/04/2026, 27/04/2026, 27/04/2026, 28/04/2026, 29/04/2026, 30/04/2026, 04/05/2026, 04/05/2026, 04/05/2026, 04/05/2026, 05/05/2026, 06/05/2026, 07/05/2026, 08/05/2026, 11/05/2026, 11/05/2026, 11/05/2026, 12/05/2026, 13/05/2026, 14/05/2026, 15/05/2026, 18/05/2026, 18/05/2026, 18/05/2026, 19/05/2026, 20/05/2026, 21/05/2026, 22/05/2026, 25/05/2026, 25/05/2026, 25/05/2026, 26/05/2026, 27/05/2026, 28/05/2026, 29/05/2026, 01/06/2026, 01/06/2026, 01/06/2026, 02/06/2026, 03/06/2026, 04/06/2026, 05/06/2026, 08/06/2026, 08/06/2026, 08/06/2026, 09/06/2026, 10/06/2026, 11/06/2026, 12/06/2026, 15/06/2026, 15/06/2026, 15/06/2026, 16/06/2026, 17/06/2026, 18/06/2026, 19/06/2026, 22/06/2026, 22/06/2026, 22/06/2026, 23/06/2026, 24/06/2026, 25/06/2026, 26/06/2026, 29/06/2026, 29/06/2026, 29/06/2026, 30/06/2026, 01/07/2026, 02/07/2026, 03/07/2026, 06/07/2026, 06/07/2026, 06/07/2026, 07/07/2026, 08/07/2026, 09/07/2026, 10/07/2026, 13/07/2026, 13/07/2026, 13/07/2026, 14/07/2026, 15/07/2026, 16/07/2026, 17/07/2026, 20/07/2026, 20/07/2026, 20/07/2026, 21/07/2026, 22/07/2026, 23/07/2026, 24/07/2026, 27/07/2026, 27/07/2026, 27/07/2026, 28/07/2026, 29/07/2026, 30/07/2026, 31/07/2026, 03/08/2026, 03/08/2026, 03/08/2026, 04/08/2026, 05/08/2026, 06/08/2026, 07/08/2026, 10/08/2026, 10/08/2026, 10/08/2026, 11/08/2026, 12/08/2026, 13/08/2026, 14/08/2026, 17/08/2026, 17/08/2026, 17/08/2026, 18/08/2026, 19/08/2026, 20/08/2026, 21/08/2026, 24/08/2026, 24/08/2026, 24/08/2026, 25/08/2026, 26/08/2026, 27/08/2026, 28/08/2026, 31/08/2026, 31/08/2026, 31/08/2026, 01/09/2026, 02/09/2026, 03/09/2026, 04/09/2026, 07/09/2026, 07/09/2026, 07/09/2026, 08/09/2026, 09/09/2026, 10/09/2026, 11/09/2026, 14/09/2026, 14/09/2026, 14/09/2026, 15/09/2026, 16/09/2026, 17/09/2026, 18/09/2026, 21/09/2026, 21/09/2026, 21/09/2026, 22/09/2026, 23/09/2026, 24/09/2026, 25/09/2026, 28/09/2026, 28/09/2026, 28/09/2026, 29/09/2026, 30/09/2026, 01/10/2026, 02/10/2026, 05/10/2026, 05/10/2026, 05/10/2026, 06/10/2026, 07/10/2026, 08/10/2026, 09/10/2026, 12/10/2026, 12/10/2026, 12/10/2026, 13/10/2026, 14/10/2026, 15/10/2026, 16/10/2026, 19/10/2026, 19/10/2026, 19/10/2026, 20/10/2026, 21/10/2026, 22/10/2026, 23/10/2026, 26/10/2026, 26/10/2026, 26/10/2026, 27/10/2026, 28/10/2026, 29/10/2026, 30/10/2026, 02/11/2026, 02/11/2026, 02/11/2026, 03/11/2026, 04/11/2026, 05/11/2026, 06/11/2026, 09/11/2026, 09/11/2026, 09/11/2026, 10/11/2026, 11/11/2026, 12/11/2026, 13/11/2026, 16/11/2026, 16/11/2026, 16/11/2026, 17/11/2026, 18/11/2026, 19/11/2026, 20/11/2026, 23/11/2026, 23/11/2026, 23/11/2026, 24/11/2026, 25/11/2026, 26/11/2026, 27/11/2026, 30/11/2026, 30/11/2026, 30/11/2026, 01/12/2026, 02/12/2026, 03/12/2026, 04/12/2026, 07/12/2026, 07/12/2026, 07/12/2026, 08/12/2026, 09/12/2026, 10/12/2026, 11/12/2026, 14/12/2026, 14/12/2026, 14/12/2026, 15/12/2026, 16/12/2026, 17/12/2026, 18/12/2026, 21/12/2026, 21/12/2026, 21/12/2026, 22/12/2026, 23/12/2026, 24/12/2026, 28/12/2026, 28/12/2026, 28/12/2026, 28/12/2026, 29/12/2026, 30/12/2026, 31/12/2026, 04/01/2027, 04/01/2027, 04/01/2027, 04/01/2027, 05/01/2027, 06/01/2027, 07/01/2027, 08/01/2027, 11/01/2027, 11/01/2027, 11/01/2027, 12/01/2027, 13/01/2027, 14/01/2027, 15/01/2027, 18/01/2027, 18/01/2027, 18/01/2027, 19/01/2027, 20/01/2027, 21/01/2027, 22/01/2027, 25/01/2027, 25/01/2027, 25/01/2027, 26/01/2027, 27/01/2027, 28/01/2027, 29/01/2027, 01/02/2027, 01/02/2027, 01/02/2027, 02/02/2027, 03/02/2027, 04/02/2027, 05/02/2027, 08/02/2027, 08/02/2027, 08/02/2027, 09/02/2027, 10/02/2027, 11/02/2027, 12/02/2027, 15/02/2027, 15/02/2027, 15/02/2027, 16/02/2027, 17/02/2027, 18/02/2027, 19/02/2027, 22/02/2027, 22/02/2027, 22/02/2027, 23/02/2027, 24/02/2027, 25/02/2027, 26/02/2027, 01/03/2027, 01/03/2027, 01/03/2027, 02/03/2027, 03/03/2027, 04/03/2027, 05/03/2027, 08/03/2027, 08/03/2027, 08/03/2027, 09/03/2027, 10/03/2027, 11/03/2027, 12/03/2027, 15/03/2027, 15/03/2027, 15/03/2027, 16/03/2027, 17/03/2027, 18/03/2027, 19/03/2027, 22/03/2027, 22/03/2027, 22/03/2027, 23/03/2027, 24/03/2027, 25/03/2027, 30/03/2027, 30/03/2027, 30/03/2027, 30/03/2027, 30/03/2027, 31/03/2027, 01/04/2027, 02/04/2027, 05/04/2027, 05/04/2027, 05/04/2027, 06/04/2027, 07/04/2027, 08/04/2027, 09/04/2027, 12/04/2027, 12/04/2027, 12/04/2027, 13/04/2027, 14/04/2027, 15/04/2027, 16/04/2027, 19/04/2027, 19/04/2027, 19/04/2027, 20/04/2027, 21/04/2027, 22/04/2027, 23/04/2027, 26/04/2027, 26/04/2027, 26/04/2027, 27/04/2027, 28/04/2027, 29/04/2027, 30/04/2027, 03/05/2027, 03/05/2027, 03/05/2027, 04/05/2027, 05/05/2027, 06/05/2027, 07/05/2027, 10/05/2027, 10/05/2027, 10/05/2027, 11/05/2027, 12/05/2027, 13/05/2027, 14/05/2027, 17/05/2027, 17/05/2027, 17/05/2027, 18/05/2027, 19/05/2027, 20/05/2027, 21/05/2027, 24/05/2027, 24/05/2027, 24/05/2027, 25/05/2027, 26/05/2027, 27/05/2027, 28/05/2027, 31/05/2027, 31/05/2027, 31/05/2027, 01/06/2027, 02/06/2027, 03/06/2027, 04/06/2027, 07/06/2027, 07/06/2027, 07/06/2027, 08/06/2027, 09/06/2027, 10/06/2027, 11/06/2027, 14/06/2027, 14/06/2027, 14/06/2027, 15/06/2027, 16/06/2027, 17/06/2027, 18/06/2027, 21/06/2027, 21/06/2027, 21/06/2027, 22/06/2027, 23/06/2027, 24/06/2027, 25/06/2027, 28/06/2027, 28/06/2027, 28/06/2027, 29/06/2027, 30/06/2027, 01/07/2027, 02/07/2027, 05/07/2027, 05/07/2027, 05/07/2027, 06/07/2027, 07/07/2027, 08/07/2027, 09/07/2027, 12/07/2027, 12/07/2027, 12/07/2027, 13/07/2027, 14/07/2027, 15/07/2027, 16/07/2027, 19/07/2027, 19/07/2027, 19/07/2027, 20/07/2027, 21/07/2027, 22/07/2027, 23/07/2027, 26/07/2027, 26/07/2027, 26/07/2027, 27/07/2027, 28/07/2027, 29/07/2027, 30/07/2027, 02/08/2027, 02/08/2027, 02/08/2027, 03/08/2027, 04/08/2027, 05/08/2027, 06/08/2027, 09/08/2027, 09/08/2027, 09/08/2027, 10/08/2027, 11/08/2027, 12/08/2027, 13/08/2027, 16/08/2027, 16/08/2027, 16/08/2027, 17/08/2027, 18/08/2027, 19/08/2027, 20/08/2027, 23/08/2027, 23/08/2027, 23/08/2027, 24/08/2027, 25/08/2027, 26/08/2027, 27/08/2027, 30/08/2027, 30/08/2027, 30/08/2027, 31/08/2027, 01/09/2027, 02/09/2027, 03/09/2027, 06/09/2027, 06/09/2027, 06/09/2027, 07/09/2027, 08/09/2027, 09/09/2027, 10/09/2027, 13/09/2027, 13/09/2027, 13/09/2027, 14/09/2027, 15/09/2027, 16/09/2027, 17/09/2027, 20/09/2027, 20/09/2027, 20/09/2027, 21/09/2027, 22/09/2027, 23/09/2027, 24/09/2027, 27/09/2027, 27/09/2027, 27/09/2027, 28/09/2027, 29/09/2027, 30/09/2027, 01/10/2027, 04/10/2027, 04/10/2027, 04/10/2027, 05/10/2027, 06/10/2027, 07/10/2027, 08/10/2027, 11/10/2027, 11/10/2027, 11/10/2027, 12/10/2027, 13/10/2027, 14/10/2027, 15/10/2027, 18/10/2027, 18/10/2027, 18/10/2027, 19/10/2027, 20/10/2027, 21/10/2027, 22/10/2027, 25/10/2027, 25/10/2027, 25/10/2027, 26/10/2027, 27/10/2027, 28/10/2027, 29/10/2027, 01/11/2027, 01/11/2027, 01/11/2027, 02/11/2027, 03/11/2027, 04/11/2027, 05/11/2027, 08/11/2027, 08/11/2027, 08/11/2027, 09/11/2027, 10/11/2027, 11/11/2027, 12/11/2027, 15/11/2027, 15/11/2027, 15/11/2027, 16/11/2027, 17/11/2027, 18/11/2027, 19/11/2027, 22/11/2027, 22/11/2027, 22/11/2027, 23/11/2027, 24/11/2027, 25/11/2027, 26/11/2027, 29/11/2027, 29/11/2027, 29/11/2027, 30/11/2027, 01/12/2027, 02/12/2027, 03/12/2027, 06/12/2027, 06/12/2027, 06/12/2027, 07/12/2027, 08/12/2027, 09/12/2027, 10/12/2027, 13/12/2027, 13/12/2027, 13/12/2027, 14/12/2027, 15/12/2027, 16/12/2027, 17/12/2027, 20/12/2027, 20/12/2027, 20/12/2027, 21/12/2027, 22/12/2027, 23/12/2027, 24/12/2027, 27/12/2027, 27/12/2027, 27/12/2027, 28/12/2027, 29/12/2027, 30/12/2027, 31/12/2027, 03/01/2028, 03/01/2028, 03/01/2028, 04/01/2028, 05/01/2028, 06/01/2028, 07/01/2028, 10/01/2028, 10/01/2028, 10/01/2028, 11/01/2028, 12/01/2028, 13/01/2028, 14/01/2028, 17/01/2028, 17/01/2028, 17/01/2028, 18/01/2028, 19/01/2028, 20/01/2028, 21/01/2028, 24/01/2028, 24/01/2028, 24/01/2028, 25/01/2028, 26/01/2028, 27/01/2028, 28/01/2028, 31/01/2028, 31/01/2028, 31/01/2028, 01/02/2028, 02/02/2028, 03/02/2028, 04/02/2028, 07/02/2028, 07/02/2028, 07/02/2028, 08/02/2028, 09/02/2028, 10/02/2028, 11/02/2028, 14/02/2028, 14/02/2028, 14/02/2028, 15/02/2028, 16/02/2028, 17/02/2028, 18/02/2028, 21/02/2028, 21/02/2028, 21/02/2028, 22/02/2028, 23/02/2028, 24/02/2028, 25/02/2028, 28/02/2028, 28/02/2028, 28/02/2028, 29/02/2028, 01/03/2028, 02/03/2028, 03/03/2028, 06/03/2028, 06/03/2028, 06/03/2028, 07/03/2028, 08/03/2028, 09/03/2028, 10/03/2028, 13/03/2028, 13/03/2028, 13/03/2028, 14/03/2028, 15/03/2028, 16/03/2028, 17/03/2028, 20/03/2028, 20/03/2028, 20/03/2028, 21/03/2028, 22/03/2028, 23/03/2028, 24/03/2028, 27/03/2028, 27/03/2028, 27/03/2028, 28/03/2028, 29/03/2028, 30/03/2028, 31/03/2028, 03/04/2028, 03/04/2028, 03/04/2028, 04/04/2028, 05/04/2028, 06/04/2028, 07/04/2028, 10/04/2028, 10/04/2028, 10/04/2028, 11/04/2028, 12/04/2028, 13/04/2028, 18/04/2028, 18/04/2028, 18/04/2028, 18/04/2028, 18/04/2028, 19/04/2028, 20/04/2028, 21/04/2028, 24/04/2028, 24/04/2028, 24/04/2028, 25/04/2028, 26/04/2028, 27/04/2028, 28/04/2028, 02/05/2028, 02/05/2028, 02/05/2028, 02/05/2028, 03/05/2028, 04/05/2028, 05/05/2028, 08/05/2028, 08/05/2028, 08/05/2028, 09/05/2028, 10/05/2028, 11/05/2028, 12/05/2028, 15/05/2028, 15/05/2028, 15/05/2028, 16/05/2028, 17/05/2028, 18/05/2028, 19/05/2028, 22/05/2028, 22/05/2028, 22/05/2028, 23/05/2028, 24/05/2028, 25/05/2028, 26/05/2028, 29/05/2028, 29/05/2028, 29/05/2028, 30/05/2028, 31/05/2028, 01/06/2028, 02/06/2028, 05/06/2028, 05/06/2028, 05/06/2028, 06/06/2028, 07/06/2028, 08/06/2028, 09/06/2028, 12/06/2028, 12/06/2028, 12/06/2028, 13/06/2028, 14/06/2028, 15/06/2028, 16/06/2028, 19/06/2028, 19/06/2028, 19/06/2028, 20/06/2028, 21/06/2028, 22/06/2028, 23/06/2028, 26/06/2028, 26/06/2028, 26/06/2028, 27/06/2028, 28/06/2028, 29/06/2028, 30/06/2028, 03/07/2028, 03/07/2028, 03/07/2028, 04/07/2028, 05/07/2028, 06/07/2028, 07/07/2028, 10/07/2028, 10/07/2028, 10/07/2028, 11/07/2028, 12/07/2028, 13/07/2028, 14/07/2028, 17/07/2028, 17/07/2028, 17/07/2028, 18/07/2028, 19/07/2028, 20/07/2028, 21/07/2028, 24/07/2028, 24/07/2028, 24/07/2028, 25/07/2028, 26/07/2028, 27/07/2028, 28/07/2028, 31/07/2028, 31/07/2028, 31/07/2028, 01/08/2028, 02/08/2028, 03/08/2028, 04/08/2028, 07/08/2028, 07/08/2028, 07/08/2028, 08/08/2028, 09/08/2028, 10/08/2028, 11/08/2028, 14/08/2028, 14/08/2028, 14/08/2028, 15/08/2028, 16/08/2028, 17/08/2028, 18/08/2028, 21/08/2028, 21/08/2028, 21/08/2028, 22/08/2028, 23/08/2028, 24/08/2028, 25/08/2028, 28/08/2028, 28/08/2028, 28/08/2028, 29/08/2028, 30/08/2028, 31/08/2028, 01/09/2028, 04/09/2028, 04/09/2028, 04/09/2028, 05/09/2028, 06/09/2028, 07/09/2028, 08/09/2028, 11/09/2028, 11/09/2028, 11/09/2028, 12/09/2028, 13/09/2028, 14/09/2028, 15/09/2028, 18/09/2028, 18/09/2028, 18/09/2028, 19/09/2028, 20/09/2028, 21/09/2028, 22/09/2028, 25/09/2028, 25/09/2028, 25/09/2028, 26/09/2028, 27/09/2028, 28/09/2028, 29/09/2028, 02/10/2028, 02/10/2028, 02/10/2028, 03/10/2028, 04/10/2028, 05/10/2028, 06/10/2028, 09/10/2028, 09/10/2028, 09/10/2028, 10/10/2028, 11/10/2028, 12/10/2028, 13/10/2028, 16/10/2028, 16/10/2028, 16/10/2028, 17/10/2028, 18/10/2028, 19/10/2028, 20/10/2028, 23/10/2028, 23/10/2028, 23/10/2028, 24/10/2028, 25/10/2028, 26/10/2028, 27/10/2028, 30/10/2028, 30/10/2028, 30/10/2028, 31/10/2028, 01/11/2028, 02/11/2028, 03/11/2028, 06/11/2028, 06/11/2028, 06/11/2028, 07/11/2028, 08/11/2028, 09/11/2028, 10/11/2028, 13/11/2028, 13/11/2028, 13/11/2028, 14/11/2028, 15/11/2028, 16/11/2028, 17/11/2028, 20/11/2028, 20/11/2028, 20/11/2028, 21/11/2028, 22/11/2028, 23/11/2028, 24/11/2028, 27/11/2028, 27/11/2028, 27/11/2028, 28/11/2028, 29/11/2028, 30/11/2028, 01/12/2028, 04/12/2028, 04/12/2028, 04/12/2028, 05/12/2028, 06/12/2028, 07/12/2028, 08/12/2028, 11/12/2028, 11/12/2028, 11/12/2028, 12/12/2028, 13/12/2028, 14/12/2028, 15/12/2028, 18/12/2028, 18/12/2028, 18/12/2028, 19/12/2028, 20/12/2028, 21/12/2028, 22/12/2028, 27/12/2028, 27/12/2028, 27/12/2028, 27/12/2028, 27/12/2028, 28/12/2028, 29/12/2028, 02/01/2029, 02/01/2029, 02/01/2029, 02/01/2029, 03/01/2029, 04/01/2029, 05/01/2029, 08/01/2029, 08/01/2029, 08/01/2029, 09/01/2029, 10/01/2029, 11/01/2029, 12/01/2029, 15/01/2029, 15/01/2029, 15/01/2029, 16/01/2029, 17/01/2029, 18/01/2029, 19/01/2029, 22/01/2029, 22/01/2029, 22/01/2029, 23/01/2029, 24/01/2029, 25/01/2029, 26/01/2029, 29/01/2029, 29/01/2029, 29/01/2029, 30/01/2029, 31/01/2029, 01/02/2029, 02/02/2029, 05/02/2029, 05/02/2029, 05/02/2029, 06/02/2029, 07/02/2029, 08/02/2029, 09/02/2029, 12/02/2029, 12/02/2029, 12/02/2029, 13/02/2029, 14/02/2029, 15/02/2029, 16/02/2029, 19/02/2029, 19/02/2029, 19/02/2029, 20/02/2029, 21/02/2029, 22/02/2029, 23/02/2029, 26/02/2029, 26/02/2029, 26/02/2029, 27/02/2029, 28/02/2029, 01/03/2029, 02/03/2029, 05/03/2029, 05/03/2029, 05/03/2029, 06/03/2029, 07/03/2029, 08/03/2029, 09/03/2029, 12/03/2029, 12/03/2029, 12/03/2029, 13/03/2029, 14/03/2029, 15/03/2029, 16/03/2029, 19/03/2029, 19/03/2029, 19/03/2029, 20/03/2029, 21/03/2029, 22/03/2029, 23/03/2029, 26/03/2029, 26/03/2029, 26/03/2029, 27/03/2029, 28/03/2029, 29/03/2029, 03/04/2029, 03/04/2029, 03/04/2029, 03/04/2029, 03/04/2029, 04/04/2029, 05/04/2029, 06/04/2029, 09/04/2029, 09/04/2029, 09/04/2029, 10/04/2029, 11/04/2029, 12/04/2029, 13/04/2029, 16/04/2029, 16/04/2029, 16/04/2029, 17/04/2029, 18/04/2029, 19/04/2029, 20/04/2029, 23/04/2029, 23/04/2029, 23/04/2029, 24/04/2029, 25/04/2029, 26/04/2029, 27/04/2029, 30/04/2029, 30/04/2029, 30/04/2029, 02/05/2029, 02/05/2029, 03/05/2029, 04/05/2029, 07/05/2029, 07/05/2029, 07/05/2029, 08/05/2029, 09/05/2029, 10/05/2029, 11/05/2029, 14/05/2029, 14/05/2029, 14/05/2029, 15/05/2029, 16/05/2029, 17/05/2029, 18/05/2029, 21/05/2029, 21/05/2029, 21/05/2029, 22/05/2029, 23/05/2029, 24/05/2029, 25/05/2029, 28/05/2029, 28/05/2029, 28/05/2029, 29/05/2029, 30/05/2029, 31/05/2029, 01/06/2029, 04/06/2029, 04/06/2029, 04/06/2029, 05/06/2029, 06/06/2029, 07/06/2029, 08/06/2029, 11/06/2029, 11/06/2029, 11/06/2029, 12/06/2029, 13/06/2029, 14/06/2029, 15/06/2029, 18/06/2029, 18/06/2029, 18/06/2029, 19/06/2029, 20/06/2029, 21/06/2029, 22/06/2029, 25/06/2029, 25/06/2029, 25/06/2029, 26/06/2029, 27/06/2029, 28/06/2029, 29/06/2029, 02/07/2029, 02/07/2029, 02/07/2029, 03/07/2029, 04/07/2029, 05/07/2029, 06/07/2029, 09/07/2029, 09/07/2029, 09/07/2029, 10/07/2029, 11/07/2029, 12/07/2029, 13/07/2029, 16/07/2029, 16/07/2029, 16/07/2029, 17/07/2029, 18/07/2029, 19/07/2029, 20/07/2029, 23/07/2029, 23/07/2029, 23/07/2029, 24/07/2029, 25/07/2029, 26/07/2029, 27/07/2029, 30/07/2029, 30/07/2029, 30/07/2029, 31/07/2029, 01/08/2029, 02/08/2029, 03/08/2029, 06/08/2029, 06/08/2029, 06/08/2029, 07/08/2029, 08/08/2029, 09/08/2029, 10/08/2029, 13/08/2029, 13/08/2029, 13/08/2029, 14/08/2029, 15/08/2029, 16/08/2029, 17/08/2029, 20/08/2029, 20/08/2029, 20/08/2029, 21/08/2029, 22/08/2029, 23/08/2029, 24/08/2029, 27/08/2029, 27/08/2029, 27/08/2029, 28/08/2029, 29/08/2029, 30/08/2029, 31/08/2029, 03/09/2029, 03/09/2029, 03/09/2029, 04/09/2029, 05/09/2029, 06/09/2029, 07/09/2029, 10/09/2029, 10/09/2029, 10/09/2029, 11/09/2029, 12/09/2029, 13/09/2029, 14/09/2029, 17/09/2029, 17/09/2029, 17/09/2029, 18/09/2029, 19/09/2029, 20/09/2029, 21/09/2029, 24/09/2029, 24/09/2029, 24/09/2029, 25/09/2029, 26/09/2029, 27/09/2029, 28/09/2029, 01/10/2029, 01/10/2029, 01/10/2029, 02/10/2029, 03/10/2029, 04/10/2029, 05/10/2029, 08/10/2029, 08/10/2029, 08/10/2029, 09/10/2029, 10/10/2029, 11/10/2029, 12/10/2029, 15/10/2029, 15/10/2029, 15/10/2029, 16/10/2029, 17/10/2029, 18/10/2029, 19/10/2029, 22/10/2029, 22/10/2029, 22/10/2029, 23/10/2029, 24/10/2029, 25/10/2029, 26/10/2029, 29/10/2029, 29/10/2029, 29/10/2029, 30/10/2029, 31/10/2029, 01/11/2029, 02/11/2029, 05/11/2029, 05/11/2029, 05/11/2029, 06/11/2029, 07/11/2029, 08/11/2029, 09/11/2029, 12/11/2029, 12/11/2029, 12/11/2029, 13/11/2029, 14/11/2029, 15/11/2029, 16/11/2029, 19/11/2029, 19/11/2029, 19/11/2029, 20/11/2029, 21/11/2029, 22/11/2029, 23/11/2029, 26/11/2029, 26/11/2029, 26/11/2029, 27/11/2029, 28/11/2029, 29/11/2029, 30/11/2029, 03/12/2029, 03/12/2029, 03/12/2029, 04/12/2029, 05/12/2029, 06/12/2029, 07/12/2029, 10/12/2029, 10/12/2029, 10/12/2029, 11/12/2029, 12/12/2029, 13/12/2029, 14/12/2029, 17/12/2029, 17/12/2029, 17/12/2029, 18/12/2029, 19/12/2029, 20/12/2029, 21/12/2029, 24/12/2029, 24/12/2029, 24/12/2029, 27/12/2029, 27/12/2029, 27/12/2029, 28/12/2029, 31/12/2029, 31/12/2029, 31/12/2029, 02/01/2030, 02/01/2030, 03/01/2030, 04/01/2030, 07/01/2030, 07/01/2030, 07/01/2030, 08/01/2030, 09/01/2030, 10/01/2030, 11/01/2030, 14/01/2030, 14/01/2030, 14/01/2030, 15/01/2030, 16/01/2030, 17/01/2030, 18/01/2030, 21/01/2030, 21/01/2030, 21/01/2030, 22/01/2030, 23/01/2030, 24/01/2030, 25/01/2030, 28/01/2030, 28/01/2030, 28/01/2030, 29/01/2030, 30/01/2030, 31/01/2030, 01/02/2030, 04/02/2030, 04/02/2030, 04/02/2030, 05/02/2030, 06/02/2030, 07/02/2030, 08/02/2030, 11/02/2030, 11/02/2030, 11/02/2030, 12/02/2030, 13/02/2030, 14/02/2030, 15/02/2030, 18/02/2030, 18/02/2030, 18/02/2030, 19/02/2030, 20/02/2030, 21/02/2030, 22/02/2030, 25/02/2030, 25/02/2030, 25/02/2030, 26/02/2030, 27/02/2030, 28/02/2030, 01/03/2030, 04/03/2030, 04/03/2030, 04/03/2030, 05/03/2030, 06/03/2030, 07/03/2030, 08/03/2030, 11/03/2030, 11/03/2030, 11/03/2030, 12/03/2030, 13/03/2030, 14/03/2030, 15/03/2030, 18/03/2030, 18/03/2030, 18/03/2030, 19/03/2030, 20/03/2030, 21/03/2030, 22/03/2030, 25/03/2030, 25/03/2030, 25/03/2030, 26/03/2030, 27/03/2030, 28/03/2030, 29/03/2030, 01/04/2030, 01/04/2030, 01/04/2030, 02/04/2030, 03/04/2030, 04/04/2030, 05/04/2030, 08/04/2030, 08/04/2030, 08/04/2030, 09/04/2030, 10/04/2030, 11/04/2030, 12/04/2030, 15/04/2030, 15/04/2030, 15/04/2030, 16/04/2030, 17/04/2030, 18/04/2030, 23/04/2030, 23/04/2030, 23/04/2030, 23/04/2030, 23/04/2030, 24/04/2030, 25/04/2030, 26/04/2030, 29/04/2030, 29/04/2030, 29/04/2030, 30/04/2030, 02/05/2030, 02/05/2030, 03/05/2030, 06/05/2030, 06/05/2030, 06/05/2030, 07/05/2030, 08/05/2030, 09/05/2030, 10/05/2030, 13/05/2030, 13/05/2030, 13/05/2030, 14/05/2030, 15/05/2030, 16/05/2030, 17/05/2030, 20/05/2030, 20/05/2030, 20/05/2030, 21/05/2030, 22/05/2030, 23/05/2030, 24/05/2030, 27/05/2030, 27/05/2030, 27/05/2030, 28/05/2030, 29/05/2030, 30/05/2030, 31/05/2030, 03/06/2030, 03/06/2030, 03/06/2030, 04/06/2030, 05/06/2030, 06/06/2030, 07/06/2030, 10/06/2030, 10/06/2030, 10/06/2030, 11/06/2030, 12/06/2030, 13/06/2030, 14/06/2030, 17/06/2030, 17/06/2030, 17/06/2030, 18/06/2030, 19/06/2030, 20/06/2030, 21/06/2030, 24/06/2030, 24/06/2030, 24/06/2030, 25/06/2030, 26/06/2030, 27/06/2030, 28/06/2030, 01/07/2030, 01/07/2030, 01/07/2030, 02/07/2030, 03/07/2030, 04/07/2030, 05/07/2030, 08/07/2030, 08/07/2030, 08/07/2030, 09/07/2030, 10/07/2030, 11/07/2030, 12/07/2030, 15/07/2030, 15/07/2030, 15/07/2030, 16/07/2030, 17/07/2030, 18/07/2030, 19/07/2030, 22/07/2030, 22/07/2030, 22/07/2030, 23/07/2030, 24/07/2030, 25/07/2030, 26/07/2030, 29/07/2030, 29/07/2030, 29/07/2030, 30/07/2030, 31/07/2030, 01/08/2030, 02/08/2030, 05/08/2030, 05/08/2030, 05/08/2030, 06/08/2030, 07/08/2030, 08/08/2030, 09/08/2030, 12/08/2030, 12/08/2030, 12/08/2030, 13/08/2030, 14/08/2030, 15/08/2030, 16/08/2030, 19/08/2030, 19/08/2030, 19/08/2030, 20/08/2030, 21/08/2030, 22/08/2030, 23/08/2030, 26/08/2030, 26/08/2030, 26/08/2030, 27/08/2030, 28/08/2030, 29/08/2030, 30/08/2030, 02/09/2030, 02/09/2030, 02/09/2030, 03/09/2030, 04/09/2030, 05/09/2030, 06/09/2030, 09/09/2030, 09/09/2030, 09/09/2030, 10/09/2030, 11/09/2030, 12/09/2030, 13/09/2030, 16/09/2030, 16/09/2030, 16/09/2030, 17/09/2030, 18/09/2030, 19/09/2030, 20/09/2030, 23/09/2030, 23/09/2030, 23/09/2030, 24/09/2030, 25/09/2030, 26/09/2030, 27/09/2030, 30/09/2030, 30/09/2030, 30/09/2030, 01/10/2030, 02/10/2030, 03/10/2030, 04/10/2030, 07/10/2030, 07/10/2030, 07/10/2030, 08/10/2030, 09/10/2030, 10/10/2030, 11/10/2030, 14/10/2030, 14/10/2030, 14/10/2030, 15/10/2030, 16/10/2030, 17/10/2030, 18/10/2030, 21/10/2030, 21/10/2030, 21/10/2030, 22/10/2030, 23/10/2030, 24/10/2030, 25/10/2030, 28/10/2030, 28/10/2030, 28/10/2030, 29/10/2030, 30/10/2030, 31/10/2030, 01/11/2030, 04/11/2030, 04/11/2030, 04/11/2030, 05/11/2030, 06/11/2030, 07/11/2030, 08/11/2030, 11/11/2030, 11/11/2030, 11/11/2030, 12/11/2030, 13/11/2030, 14/11/2030, 15/11/2030, 18/11/2030, 18/11/2030, 18/11/2030, 19/11/2030, 20/11/2030, 21/11/2030, 22/11/2030, 25/11/2030, 25/11/2030, 25/11/2030, 26/11/2030, 27/11/2030, 28/11/2030, 29/11/2030, 02/12/2030, 02/12/2030, 02/12/2030, 03/12/2030, 04/12/2030, 05/12/2030, 06/12/2030, 09/12/2030, 09/12/2030, 09/12/2030, 10/12/2030, 11/12/2030, 12/12/2030, 13/12/2030, 16/12/2030, 16/12/2030, 16/12/2030, 17/12/2030, 18/12/2030, 19/12/2030, 20/12/2030, 23/12/2030, 23/12/2030, 23/12/2030, 24/12/2030, 27/12/2030, 27/12/2030, 27/12/2030, 30/12/2030, 30/12/2030, 30/12/2030, 31/12/2030, 02/01/2031, 02/01/2031, 03/01/2031, 06/01/2031, 06/01/2031, 06/01/2031, 07/01/2031, 08/01/2031, 09/01/2031, 10/01/2031, 13/01/2031, 13/01/2031, 13/01/2031, 14/01/2031, 15/01/2031, 16/01/2031, 17/01/2031, 20/01/2031, 20/01/2031, 20/01/2031, 21/01/2031, 22/01/2031, 23/01/2031, 24/01/2031, 27/01/2031, 27/01/2031, 27/01/2031, 28/01/2031, 29/01/2031, 30/01/2031, 31/01/2031, 03/02/2031, 03/02/2031, 03/02/2031, 04/02/2031, 05/02/2031, 06/02/2031, 07/02/2031, 10/02/2031, 10/02/2031, 10/02/2031, 11/02/2031, 12/02/2031, 13/02/2031, 14/02/2031, 17/02/2031, 17/02/2031, 17/02/2031, 18/02/2031, 19/02/2031, 20/02/2031, 21/02/2031, 24/02/2031, 24/02/2031, 24/02/2031, 25/02/2031, 26/02/2031, 27/02/2031, 28/02/2031, 03/03/2031, 03/03/2031, 03/03/2031, 04/03/2031, 05/03/2031, 06/03/2031, 07/03/2031, 10/03/2031, 10/03/2031, 10/03/2031, 11/03/2031, 12/03/2031, 13/03/2031, 14/03/2031, 17/03/2</t>
+          <t>Chaque jour de bourse entre le 25 septembre 2023 (inclus) et le 23 septembre 2032.</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>09/10/2023, 09/10/2023, 09/10/2023, 10/10/2023, 11/10/2023, 12/10/2023, 13/10/2023, 16/10/2023, 16/10/2023, 16/10/2023, 17/10/2023, 18/10/2023, 19/10/2023, 20/10/2023, 23/10/2023, 23/10/2023, 23/10/2023, 24/10/2023, 25/10/2023, 26/10/2023, 27/10/2023, 30/10/2023, 30/10/2023, 30/10/2023, 31/10/2023, 01/11/2023, 02/11/2023, 03/11/2023, 06/11/2023, 06/11/2023, 06/11/2023, 07/11/2023, 08/11/2023, 09/11/2023, 10/11/2023, 13/11/2023, 13/11/2023, 13/11/2023, 14/11/2023, 15/11/2023, 16/11/2023, 17/11/2023, 20/11/2023, 20/11/2023, 20/11/2023, 21/11/2023, 22/11/2023, 23/11/2023, 24/11/2023, 27/11/2023, 27/11/2023, 27/11/2023, 28/11/2023, 29/11/2023, 30/11/2023, 01/12/2023, 04/12/2023, 04/12/2023, 04/12/2023, 05/12/2023, 06/12/2023, 07/12/2023, 08/12/2023, 11/12/2023, 11/12/2023, 11/12/2023, 12/12/2023, 13/12/2023, 14/12/2023, 15/12/2023, 18/12/2023, 18/12/2023, 18/12/2023, 19/12/2023, 20/12/2023, 21/12/2023, 22/12/2023, 27/12/2023, 27/12/2023, 27/12/2023, 28/12/2023, 29/12/2023, 02/01/2024, 03/01/2024, 04/01/2024, 04/01/2024, 04/01/2024, 05/01/2024, 08/01/2024, 09/01/2024, 10/01/2024, 11/01/2024, 11/01/2024, 11/01/2024, 11/01/2024, 11/01/2024, 12/01/2024, 15/01/2024, 16/01/2024, 16/01/2024, 16/01/2024, 16/01/2024, 17/01/2024, 18/01/2024, 19/01/2024, 22/01/2024, 22/01/2024, 22/01/2024, 23/01/2024, 24/01/2024, 25/01/2024, 26/01/2024, 29/01/2024, 29/01/2024, 29/01/2024, 30/01/2024, 31/01/2024, 01/02/2024, 02/02/2024, 05/02/2024, 05/02/2024, 05/02/2024, 06/02/2024, 07/02/2024, 08/02/2024, 09/02/2024, 12/02/2024, 12/02/2024, 12/02/2024, 13/02/2024, 14/02/2024, 15/02/2024, 16/02/2024, 19/02/2024, 19/02/2024, 19/02/2024, 20/02/2024, 21/02/2024, 22/02/2024, 23/02/2024, 26/02/2024, 26/02/2024, 26/02/2024, 27/02/2024, 28/02/2024, 29/02/2024, 01/03/2024, 04/03/2024, 04/03/2024, 04/03/2024, 05/03/2024, 06/03/2024, 07/03/2024, 08/03/2024, 11/03/2024, 11/03/2024, 11/03/2024, 12/03/2024, 13/03/2024, 14/03/2024, 15/03/2024, 18/03/2024, 18/03/2024, 18/03/2024, 19/03/2024, 20/03/2024, 21/03/2024, 22/03/2024, 25/03/2024, 25/03/2024, 25/03/2024, 26/03/2024, 27/03/2024, 28/03/2024, 02/04/2024, 03/04/2024, 03/04/2024, 03/04/2024, 04/04/2024, 05/04/2024, 08/04/2024, 09/04/2024, 10/04/2024, 10/04/2024, 10/04/2024, 11/04/2024, 12/04/2024, 15/04/2024, 16/04/2024, 16/04/2024, 16/04/2024, 16/04/2024, 16/04/2024, 17/04/2024, 18/04/2024, 19/04/2024, 22/04/2024, 22/04/2024, 22/04/2024, 23/04/2024, 24/04/2024, 25/04/2024, 26/04/2024, 29/04/2024, 29/04/2024, 29/04/2024, 30/04/2024, 02/05/2024, 03/05/2024, 06/05/2024, 07/05/2024, 07/05/2024, 07/05/2024, 08/05/2024, 09/05/2024, 10/05/2024, 13/05/2024, 14/05/2024, 14/05/2024, 14/05/2024, 15/05/2024, 16/05/2024, 16/05/2024, 17/05/2024, 20/05/2024, 20/05/2024, 20/05/2024, 21/05/2024, 22/05/2024, 23/05/2024, 24/05/2024, 27/05/2024, 27/05/2024, 27/05/2024, 28/05/2024, 29/05/2024, 30/05/2024, 31/05/2024, 03/06/2024, 03/06/2024, 03/06/2024, 04/06/2024, 05/06/2024, 06/06/2024, 07/06/2024, 10/06/2024, 10/06/2024, 10/06/2024, 11/06/2024, 12/06/2024, 13/06/2024, 14/06/2024, 17/06/2024, 17/06/2024, 17/06/2024, 18/06/2024, 19/06/2024, 20/06/2024, 21/06/2024, 24/06/2024, 24/06/2024, 24/06/2024, 25/06/2024, 26/06/2024, 27/06/2024, 28/06/2024, 01/07/2024, 01/07/2024, 01/07/2024, 02/07/2024, 03/07/2024, 04/07/2024, 05/07/2024, 08/07/2024, 08/07/2024, 08/07/2024, 09/07/2024, 10/07/2024, 11/07/2024, 12/07/2024, 15/07/2024, 15/07/2024, 15/07/2024, 16/07/2024, 17/07/2024, 18/07/2024, 19/07/2024, 22/07/2024, 22/07/2024, 22/07/2024, 23/07/2024, 24/07/2024, 25/07/2024, 26/07/2024, 29/07/2024, 29/07/2024, 29/07/2024, 30/07/2024, 31/07/2024, 01/08/2024, 02/08/2024, 05/08/2024, 05/08/2024, 05/08/2024, 06/08/2024, 07/08/2024, 08/08/2024, 09/08/2024, 12/08/2024, 12/08/2024, 12/08/2024, 13/08/2024, 14/08/2024, 15/08/2024, 16/08/2024, 19/08/2024, 19/08/2024, 19/08/2024, 20/08/2024, 21/08/2024, 22/08/2024, 23/08/2024, 26/08/2024, 26/08/2024, 26/08/2024, 27/08/2024, 28/08/2024, 29/08/2024, 30/08/2024, 02/09/2024, 02/09/2024, 02/09/2024, 03/09/2024, 04/09/2024, 05/09/2024, 06/09/2024, 09/09/2024, 09/09/2024, 09/09/2024, 10/09/2024, 11/09/2024, 12/09/2024, 13/09/2024, 16/09/2024, 16/09/2024, 16/09/2024, 17/09/2024, 18/09/2024, 19/09/2024, 20/09/2024, 23/09/2024, 23/09/2024, 23/09/2024, 24/09/2024, 25/09/2024, 26/09/2024, 27/09/2024, 30/09/2024, 30/09/2024, 30/09/2024, 01/10/2024, 02/10/2024, 03/10/2024, 04/10/2024, 07/10/2024, 07/10/2024, 07/10/2024, 08/10/2024, 09/10/2024, 10/10/2024, 11/10/2024, 14/10/2024, 14/10/2024, 14/10/2024, 15/10/2024, 16/10/2024, 17/10/2024, 18/10/2024, 21/10/2024, 21/10/2024, 21/10/2024, 22/10/2024, 23/10/2024, 24/10/2024, 25/10/2024, 28/10/2024, 28/10/2024, 28/10/2024, 29/10/2024, 30/10/2024, 31/10/2024, 01/11/2024, 04/11/2024, 04/11/2024, 04/11/2024, 05/11/2024, 06/11/2024, 07/11/2024, 08/11/2024, 11/11/2024, 11/11/2024, 11/11/2024, 12/11/2024, 13/11/2024, 14/11/2024, 15/11/2024, 18/11/2024, 18/11/2024, 18/11/2024, 19/11/2024, 20/11/2024, 21/11/2024, 22/11/2024, 25/11/2024, 25/11/2024, 25/11/2024, 26/11/2024, 27/11/2024, 28/11/2024, 29/11/2024, 02/12/2024, 02/12/2024, 02/12/2024, 03/12/2024, 04/12/2024, 05/12/2024, 06/12/2024, 09/12/2024, 09/12/2024, 09/12/2024, 10/12/2024, 11/12/2024, 12/12/2024, 13/12/2024, 16/12/2024, 16/12/2024, 16/12/2024, 17/12/2024, 18/12/2024, 19/12/2024, 20/12/2024, 23/12/2024, 23/12/2024, 23/12/2024, 24/12/2024, 27/12/2024, 30/12/2024, 31/12/2024, 02/01/2025, 02/01/2025, 02/01/2025, 03/01/2025, 06/01/2025, 07/01/2025, 08/01/2025, 09/01/2025, 09/01/2025, 09/01/2025, 10/01/2025, 13/01/2025, 13/01/2025, 13/01/2025, 14/01/2025, 14/01/2025, 14/01/2025, 15/01/2025, 16/01/2025, 16/01/2025, 17/01/2025, 20/01/2025, 20/01/2025, 20/01/2025, 21/01/2025, 22/01/2025, 23/01/2025, 24/01/2025, 27/01/2025, 27/01/2025, 27/01/2025, 28/01/2025, 29/01/2025, 30/01/2025, 31/01/2025, 03/02/2025, 03/02/2025, 03/02/2025, 04/02/2025, 05/02/2025, 06/02/2025, 07/02/2025, 10/02/2025, 10/02/2025, 10/02/2025, 11/02/2025, 12/02/2025, 13/02/2025, 14/02/2025, 17/02/2025, 17/02/2025, 17/02/2025, 18/02/2025, 19/02/2025, 20/02/2025, 21/02/2025, 24/02/2025, 24/02/2025, 24/02/2025, 25/02/2025, 26/02/2025, 27/02/2025, 28/02/2025, 03/03/2025, 03/03/2025, 03/03/2025, 04/03/2025, 05/03/2025, 06/03/2025, 07/03/2025, 10/03/2025, 10/03/2025, 10/03/2025, 11/03/2025, 12/03/2025, 13/03/2025, 14/03/2025, 17/03/2025, 17/03/2025, 17/03/2025, 18/03/2025, 19/03/2025, 20/03/2025, 21/03/2025, 24/03/2025, 24/03/2025, 24/03/2025, 25/03/2025, 26/03/2025, 27/03/2025, 28/03/2025, 31/03/2025, 31/03/2025, 31/03/2025, 01/04/2025, 02/04/2025, 03/04/2025, 04/04/2025, 07/04/2025, 07/04/2025, 07/04/2025, 08/04/2025, 09/04/2025, 10/04/2025, 11/04/2025, 14/04/2025, 14/04/2025, 14/04/2025, 15/04/2025, 16/04/2025, 17/04/2025, 22/04/2025, 23/04/2025, 23/04/2025, 23/04/2025, 24/04/2025, 25/04/2025, 28/04/2025, 29/04/2025, 30/04/2025, 30/04/2025, 30/04/2025, 02/05/2025, 05/05/2025, 06/05/2025, 07/05/2025, 07/05/2025, 07/05/2025, 07/05/2025, 07/05/2025, 08/05/2025, 09/05/2025, 12/05/2025, 13/05/2025, 13/05/2025, 13/05/2025, 14/05/2025, 15/05/2025, 16/05/2025, 16/05/2025, 19/05/2025, 19/05/2025, 19/05/2025, 20/05/2025, 21/05/2025, 22/05/2025, 23/05/2025, 26/05/2025, 26/05/2025, 26/05/2025, 27/05/2025, 28/05/2025, 29/05/2025, 30/05/2025, 02/06/2025, 02/06/2025, 02/06/2025, 03/06/2025, 04/06/2025, 05/06/2025, 06/06/2025, 09/06/2025, 09/06/2025, 09/06/2025, 10/06/2025, 11/06/2025, 12/06/2025, 13/06/2025, 16/06/2025, 16/06/2025, 16/06/2025, 17/06/2025, 18/06/2025, 19/06/2025, 20/06/2025, 23/06/2025, 23/06/2025, 23/06/2025, 24/06/2025, 25/06/2025, 26/06/2025, 27/06/2025, 30/06/2025, 30/06/2025, 30/06/2025, 01/07/2025, 02/07/2025, 03/07/2025, 04/07/2025, 07/07/2025, 07/07/2025, 07/07/2025, 08/07/2025, 09/07/2025, 10/07/2025, 11/07/2025, 14/07/2025, 14/07/2025, 14/07/2025, 15/07/2025, 16/07/2025, 17/07/2025, 18/07/2025, 21/07/2025, 21/07/2025, 21/07/2025, 22/07/2025, 23/07/2025, 24/07/2025, 25/07/2025, 28/07/2025, 28/07/2025, 28/07/2025, 29/07/2025, 30/07/2025, 31/07/2025, 01/08/2025, 04/08/2025, 04/08/2025, 04/08/2025, 05/08/2025, 06/08/2025, 07/08/2025, 08/08/2025, 11/08/2025, 11/08/2025, 11/08/2025, 12/08/2025, 13/08/2025, 14/08/2025, 15/08/2025, 18/08/2025, 18/08/2025, 18/08/2025, 19/08/2025, 20/08/2025, 21/08/2025, 22/08/2025, 25/08/2025, 25/08/2025, 25/08/2025, 26/08/2025, 27/08/2025, 28/08/2025, 29/08/2025, 01/09/2025, 01/09/2025, 01/09/2025, 02/09/2025, 03/09/2025, 04/09/2025, 05/09/2025, 08/09/2025, 08/09/2025, 08/09/2025, 09/09/2025, 10/09/2025, 11/09/2025, 12/09/2025, 15/09/2025, 15/09/2025, 15/09/2025, 16/09/2025, 17/09/2025, 18/09/2025, 19/09/2025, 22/09/2025, 22/09/2025, 22/09/2025, 23/09/2025, 24/09/2025, 25/09/2025, 26/09/2025, 29/09/2025, 29/09/2025, 29/09/2025, 30/09/2025, 01/10/2025, 02/10/2025, 03/10/2025, 06/10/2025, 06/10/2025, 06/10/2025, 07/10/2025, 08/10/2025, 09/10/2025, 10/10/2025, 13/10/2025, 13/10/2025, 13/10/2025, 14/10/2025, 15/10/2025, 16/10/2025, 17/10/2025, 20/10/2025, 20/10/2025, 20/10/2025, 21/10/2025, 22/10/2025, 23/10/2025, 24/10/2025, 27/10/2025, 27/10/2025, 27/10/2025, 28/10/2025, 29/10/2025, 30/10/2025, 31/10/2025, 03/11/2025, 03/11/2025, 03/11/2025, 04/11/2025, 05/11/2025, 06/11/2025, 07/11/2025, 10/11/2025, 10/11/2025, 10/11/2025, 11/11/2025, 12/11/2025, 13/11/2025, 14/11/2025, 17/11/2025, 17/11/2025, 17/11/2025, 18/11/2025, 19/11/2025, 20/11/2025, 21/11/2025, 24/11/2025, 24/11/2025, 24/11/2025, 25/11/2025, 26/11/2025, 27/11/2025, 28/11/2025, 01/12/2025, 01/12/2025, 01/12/2025, 02/12/2025, 03/12/2025, 04/12/2025, 05/12/2025, 08/12/2025, 08/12/2025, 08/12/2025, 09/12/2025, 10/12/2025, 11/12/2025, 12/12/2025, 15/12/2025, 15/12/2025, 15/12/2025, 16/12/2025, 17/12/2025, 18/12/2025, 19/12/2025, 22/12/2025, 22/12/2025, 22/12/2025, 23/12/2025, 24/12/2025, 29/12/2025, 30/12/2025, 31/12/2025, 31/12/2025, 31/12/2025, 02/01/2026, 05/01/2026, 06/01/2026, 07/01/2026, 08/01/2026, 08/01/2026, 08/01/2026, 09/01/2026, 12/01/2026, 13/01/2026, 13/01/2026, 13/01/2026, 13/01/2026, 13/01/2026, 14/01/2026, 15/01/2026, 16/01/2026, 16/01/2026, 19/01/2026, 19/01/2026, 19/01/2026, 20/01/2026, 21/01/2026, 22/01/2026, 23/01/2026, 26/01/2026, 26/01/2026, 26/01/2026, 27/01/2026, 28/01/2026, 29/01/2026, 30/01/2026, 02/02/2026, 02/02/2026, 02/02/2026, 03/02/2026, 04/02/2026, 05/02/2026, 06/02/2026, 09/02/2026, 09/02/2026, 09/02/2026, 10/02/2026, 11/02/2026, 12/02/2026, 13/02/2026, 16/02/2026, 16/02/2026, 16/02/2026, 17/02/2026, 18/02/2026, 19/02/2026, 20/02/2026, 23/02/2026, 23/02/2026, 23/02/2026, 24/02/2026, 25/02/2026, 26/02/2026, 27/02/2026, 02/03/2026, 02/03/2026, 02/03/2026, 03/03/2026, 04/03/2026, 05/03/2026, 06/03/2026, 09/03/2026, 09/03/2026, 09/03/2026, 10/03/2026, 11/03/2026, 12/03/2026, 13/03/2026, 16/03/2026, 16/03/2026, 16/03/2026, 17/03/2026, 18/03/2026, 19/03/2026, 20/03/2026, 23/03/2026, 23/03/2026, 23/03/2026, 24/03/2026, 25/03/2026, 26/03/2026, 27/03/2026, 30/03/2026, 30/03/2026, 30/03/2026, 31/03/2026, 01/04/2026, 02/04/2026, 07/04/2026, 08/04/2026, 08/04/2026, 08/04/2026, 09/04/2026, 10/04/2026, 13/04/2026, 14/04/2026, 15/04/2026, 15/04/2026, 15/04/2026, 16/04/2026, 17/04/2026, 20/04/2026, 21/04/2026, 21/04/2026, 21/04/2026, 21/04/2026, 21/04/2026, 22/04/2026, 23/04/2026, 24/04/2026, 27/04/2026, 27/04/2026, 27/04/2026, 28/04/2026, 29/04/2026, 30/04/2026, 04/05/2026, 05/05/2026, 05/05/2026, 05/05/2026, 06/05/2026, 07/05/2026, 08/05/2026, 11/05/2026, 12/05/2026, 12/05/2026, 12/05/2026, 13/05/2026, 14/05/2026, 15/05/2026, 18/05/2026, 18/05/2026, 18/05/2026, 18/05/2026, 19/05/2026, 20/05/2026, 21/05/2026, 22/05/2026, 25/05/2026, 25/05/2026, 25/05/2026, 26/05/2026, 27/05/2026, 28/05/2026, 29/05/2026, 01/06/2026, 01/06/2026, 01/06/2026, 02/06/2026, 03/06/2026, 04/06/2026, 05/06/2026, 08/06/2026, 08/06/2026, 08/06/2026, 09/06/2026, 10/06/2026, 11/06/2026, 12/06/2026, 15/06/2026, 15/06/2026, 15/06/2026, 16/06/2026, 17/06/2026, 18/06/2026, 19/06/2026, 22/06/2026, 22/06/2026, 22/06/2026, 23/06/2026, 24/06/2026, 25/06/2026, 26/06/2026, 29/06/2026, 29/06/2026, 29/06/2026, 30/06/2026, 01/07/2026, 02/07/2026, 03/07/2026, 06/07/2026, 06/07/2026, 06/07/2026, 07/07/2026, 08/07/2026, 09/07/2026, 10/07/2026, 13/07/2026, 13/07/2026, 13/07/2026, 14/07/2026, 15/07/2026, 16/07/2026, 17/07/2026, 20/07/2026, 20/07/2026, 20/07/2026, 21/07/2026, 22/07/2026, 23/07/2026, 24/07/2026, 27/07/2026, 27/07/2026, 27/07/2026, 28/07/2026, 29/07/2026, 30/07/2026, 31/07/2026, 03/08/2026, 03/08/2026, 03/08/2026, 04/08/2026, 05/08/2026, 06/08/2026, 07/08/2026, 10/08/2026, 10/08/2026, 10/08/2026, 11/08/2026, 12/08/2026, 13/08/2026, 14/08/2026, 17/08/2026, 17/08/2026, 17/08/2026, 18/08/2026, 19/08/2026, 20/08/2026, 21/08/2026, 24/08/2026, 24/08/2026, 24/08/2026, 25/08/2026, 26/08/2026, 27/08/2026, 28/08/2026, 31/08/2026, 31/08/2026, 31/08/2026, 01/09/2026, 02/09/2026, 03/09/2026, 04/09/2026, 07/09/2026, 07/09/2026, 07/09/2026, 08/09/2026, 09/09/2026, 10/09/2026, 11/09/2026, 14/09/2026, 14/09/2026, 14/09/2026, 15/09/2026, 16/09/2026, 17/09/2026, 18/09/2026, 21/09/2026, 21/09/2026, 21/09/2026, 22/09/2026, 23/09/2026, 24/09/2026, 25/09/2026, 28/09/2026, 28/09/2026, 28/09/2026, 29/09/2026, 30/09/2026, 01/10/2026, 02/10/2026, 05/10/2026, 05/10/2026, 05/10/2026, 06/10/2026, 07/10/2026, 08/10/2026, 09/10/2026, 12/10/2026, 12/10/2026, 12/10/2026, 13/10/2026, 14/10/2026, 15/10/2026, 16/10/2026, 19/10/2026, 19/10/2026, 19/10/2026, 20/10/2026, 21/10/2026, 22/10/2026, 23/10/2026, 26/10/2026, 26/10/2026, 26/10/2026, 27/10/2026, 28/10/2026, 29/10/2026, 30/10/2026, 02/11/2026, 02/11/2026, 02/11/2026, 03/11/2026, 04/11/2026, 05/11/2026, 06/11/2026, 09/11/2026, 09/11/2026, 09/11/2026, 10/11/2026, 11/11/2026, 12/11/2026, 13/11/2026, 16/11/2026, 16/11/2026, 16/11/2026, 17/11/2026, 18/11/2026, 19/11/2026, 20/11/2026, 23/11/2026, 23/11/2026, 23/11/2026, 24/11/2026, 25/11/2026, 26/11/2026, 27/11/2026, 30/11/2026, 30/11/2026, 30/11/2026, 01/12/2026, 02/12/2026, 03/12/2026, 04/12/2026, 07/12/2026, 07/12/2026, 07/12/2026, 08/12/2026, 09/12/2026, 10/12/2026, 11/12/2026, 14/12/2026, 14/12/2026, 14/12/2026, 15/12/2026, 16/12/2026, 17/12/2026, 18/12/2026, 21/12/2026, 21/12/2026, 21/12/2026, 22/12/2026, 23/12/2026, 24/12/2026, 28/12/2026, 29/12/2026, 29/12/2026, 29/12/2026, 30/12/2026, 31/12/2026, 04/01/2027, 05/01/2027, 06/01/2027, 06/01/2027, 06/01/2027, 07/01/2027, 08/01/2027, 11/01/2027, 12/01/2027, 12/01/2027, 12/01/2027, 12/01/2027, 13/01/2027, 14/01/2027, 15/01/2027, 18/01/2027, 18/01/2027, 18/01/2027, 18/01/2027, 19/01/2027, 20/01/2027, 21/01/2027, 22/01/2027, 25/01/2027, 25/01/2027, 25/01/2027, 26/01/2027, 27/01/2027, 28/01/2027, 29/01/2027, 01/02/2027, 01/02/2027, 01/02/2027, 02/02/2027, 03/02/2027, 04/02/2027, 05/02/2027, 08/02/2027, 08/02/2027, 08/02/2027, 09/02/2027, 10/02/2027, 11/02/2027, 12/02/2027, 15/02/2027, 15/02/2027, 15/02/2027, 16/02/2027, 17/02/2027, 18/02/2027, 19/02/2027, 22/02/2027, 22/02/2027, 22/02/2027, 23/02/2027, 24/02/2027, 25/02/2027, 26/02/2027, 01/03/2027, 01/03/2027, 01/03/2027, 02/03/2027, 03/03/2027, 04/03/2027, 05/03/2027, 08/03/2027, 08/03/2027, 08/03/2027, 09/03/2027, 10/03/2027, 11/03/2027, 12/03/2027, 15/03/2027, 15/03/2027, 15/03/2027, 16/03/2027, 17/03/2027, 18/03/2027, 19/03/2027, 22/03/2027, 22/03/2027, 22/03/2027, 23/03/2027, 24/03/2027, 25/03/2027, 30/03/2027, 31/03/2027, 31/03/2027, 31/03/2027, 01/04/2027, 02/04/2027, 05/04/2027, 06/04/2027, 07/04/2027, 07/04/2027, 07/04/2027, 08/04/2027, 09/04/2027, 12/04/2027, 13/04/2027, 13/04/2027, 13/04/2027, 13/04/2027, 13/04/2027, 14/04/2027, 15/04/2027, 16/04/2027, 19/04/2027, 19/04/2027, 19/04/2027, 20/04/2027, 21/04/2027, 22/04/2027, 23/04/2027, 26/04/2027, 26/04/2027, 26/04/2027, 27/04/2027, 28/04/2027, 29/04/2027, 30/04/2027, 03/05/2027, 03/05/2027, 03/05/2027, 04/05/2027, 05/05/2027, 06/05/2027, 07/05/2027, 10/05/2027, 10/05/2027, 10/05/2027, 11/05/2027, 12/05/2027, 13/05/2027, 14/05/2027, 17/05/2027, 17/05/2027, 17/05/2027, 18/05/2027, 19/05/2027, 20/05/2027, 21/05/2027, 24/05/2027, 24/05/2027, 24/05/2027, 25/05/2027, 26/05/2027, 27/05/2027, 28/05/2027, 31/05/2027, 31/05/2027, 31/05/2027, 01/06/2027, 02/06/2027, 03/06/2027, 04/06/2027, 07/06/2027, 07/06/2027, 07/06/2027, 08/06/2027, 09/06/2027, 10/06/2027, 11/06/2027, 14/06/2027, 14/06/2027, 14/06/2027, 15/06/2027, 16/06/2027, 17/06/2027, 18/06/2027, 21/06/2027, 21/06/2027, 21/06/2027, 22/06/2027, 23/06/2027, 24/06/2027, 25/06/2027, 28/06/2027, 28/06/2027, 28/06/2027, 29/06/2027, 30/06/2027, 01/07/2027, 02/07/2027, 05/07/2027, 05/07/2027, 05/07/2027, 06/07/2027, 07/07/2027, 08/07/2027, 09/07/2027, 12/07/2027, 12/07/2027, 12/07/2027, 13/07/2027, 14/07/2027, 15/07/2027, 16/07/2027, 19/07/2027, 19/07/2027, 19/07/2027, 20/07/2027, 21/07/2027, 22/07/2027, 23/07/2027, 26/07/2027, 26/07/2027, 26/07/2027, 27/07/2027, 28/07/2027, 29/07/2027, 30/07/2027, 02/08/2027, 02/08/2027, 02/08/2027, 03/08/2027, 04/08/2027, 05/08/2027, 06/08/2027, 09/08/2027, 09/08/2027, 09/08/2027, 10/08/2027, 11/08/2027, 12/08/2027, 13/08/2027, 16/08/2027, 16/08/2027, 16/08/2027, 17/08/2027, 18/08/2027, 19/08/2027, 20/08/2027, 23/08/2027, 23/08/2027, 23/08/2027, 24/08/2027, 25/08/2027, 26/08/2027, 27/08/2027, 30/08/2027, 30/08/2027, 30/08/2027, 31/08/2027, 01/09/2027, 02/09/2027, 03/09/2027, 06/09/2027, 06/09/2027, 06/09/2027, 07/09/2027, 08/09/2027, 09/09/2027, 10/09/2027, 13/09/2027, 13/09/2027, 13/09/2027, 14/09/2027, 15/09/2027, 16/09/2027, 17/09/2027, 20/09/2027, 20/09/2027, 20/09/2027, 21/09/2027, 22/09/2027, 23/09/2027, 24/09/2027, 27/09/2027, 27/09/2027, 27/09/2027, 28/09/2027, 29/09/2027, 30/09/2027, 01/10/2027, 04/10/2027, 04/10/2027, 04/10/2027, 05/10/2027, 06/10/2027, 07/10/2027, 08/10/2027, 11/10/2027, 11/10/2027, 11/10/2027, 12/10/2027, 13/10/2027, 14/10/2027, 15/10/2027, 18/10/2027, 18/10/2027, 18/10/2027, 19/10/2027, 20/10/2027, 21/10/2027, 22/10/2027, 25/10/2027, 25/10/2027, 25/10/2027, 26/10/2027, 27/10/2027, 28/10/2027, 29/10/2027, 01/11/2027, 01/11/2027, 01/11/2027, 02/11/2027, 03/11/2027, 04/11/2027, 05/11/2027, 08/11/2027, 08/11/2027, 08/11/2027, 09/11/2027, 10/11/2027, 11/11/2027, 12/11/2027, 15/11/2027, 15/11/2027, 15/11/2027, 16/11/2027, 17/11/2027, 18/11/2027, 19/11/2027, 22/11/2027, 22/11/2027, 22/11/2027, 23/11/2027, 24/11/2027, 25/11/2027, 26/11/2027, 29/11/2027, 29/11/2027, 29/11/2027, 30/11/2027, 01/12/2027, 02/12/2027, 03/12/2027, 06/12/2027, 06/12/2027, 06/12/2027, 07/12/2027, 08/12/2027, 09/12/2027, 10/12/2027, 13/12/2027, 13/12/2027, 13/12/2027, 14/12/2027, 15/12/2027, 16/12/2027, 17/12/2027, 20/12/2027, 20/12/2027, 20/12/2027, 21/12/2027, 22/12/2027, 23/12/2027, 24/12/2027, 27/12/2027, 27/12/2027, 27/12/2027, 28/12/2027, 29/12/2027, 30/12/2027, 31/12/2027, 03/01/2028, 03/01/2028, 03/01/2028, 04/01/2028, 05/01/2028, 06/01/2028, 07/01/2028, 10/01/2028, 10/01/2028, 10/01/2028, 11/01/2028, 12/01/2028, 13/01/2028, 14/01/2028, 17/01/2028, 17/01/2028, 17/01/2028, 18/01/2028, 19/01/2028, 20/01/2028, 21/01/2028, 24/01/2028, 24/01/2028, 24/01/2028, 25/01/2028, 26/01/2028, 27/01/2028, 28/01/2028, 31/01/2028, 31/01/2028, 31/01/2028, 01/02/2028, 02/02/2028, 03/02/2028, 04/02/2028, 07/02/2028, 07/02/2028, 07/02/2028, 08/02/2028, 09/02/2028, 10/02/2028, 11/02/2028, 14/02/2028, 14/02/2028, 14/02/2028, 15/02/2028, 16/02/2028, 17/02/2028, 18/02/2028, 21/02/2028, 21/02/2028, 21/02/2028, 22/02/2028, 23/02/2028, 24/02/2028, 25/02/2028, 28/02/2028, 28/02/2028, 28/02/2028, 29/02/2028, 01/03/2028, 02/03/2028, 03/03/2028, 06/03/2028, 06/03/2028, 06/03/2028, 07/03/2028, 08/03/2028, 09/03/2028, 10/03/2028, 13/03/2028, 13/03/2028, 13/03/2028, 14/03/2028, 15/03/2028, 16/03/2028, 17/03/2028, 20/03/2028, 20/03/2028, 20/03/2028, 21/03/2028, 22/03/2028, 23/03/2028, 24/03/2028, 27/03/2028, 27/03/2028, 27/03/2028, 28/03/2028, 29/03/2028, 30/03/2028, 31/03/2028, 03/04/2028, 03/04/2028, 03/04/2028, 04/04/2028, 05/04/2028, 06/04/2028, 07/04/2028, 10/04/2028, 10/04/2028, 10/04/2028, 11/04/2028, 12/04/2028, 13/04/2028, 18/04/2028, 19/04/2028, 19/04/2028, 19/04/2028, 20/04/2028, 21/04/2028, 24/04/2028, 25/04/2028, 26/04/2028, 26/04/2028, 26/04/2028, 27/04/2028, 28/04/2028, 02/05/2028, 03/05/2028, 03/05/2028, 03/05/2028, 03/05/2028, 03/05/2028, 04/05/2028, 05/05/2028, 08/05/2028, 09/05/2028, 09/05/2028, 09/05/2028, 10/05/2028, 11/05/2028, 12/05/2028, 15/05/2028, 16/05/2028, 16/05/2028, 16/05/2028, 16/05/2028, 17/05/2028, 18/05/2028, 19/05/2028, 22/05/2028, 22/05/2028, 22/05/2028, 23/05/2028, 24/05/2028, 25/05/2028, 26/05/2028, 29/05/2028, 29/05/2028, 29/05/2028, 30/05/2028, 31/05/2028, 01/06/2028, 02/06/2028, 05/06/2028, 05/06/2028, 05/06/2028, 06/06/2028, 07/06/2028, 08/06/2028, 09/06/2028, 12/06/2028, 12/06/2028, 12/06/2028, 13/06/2028, 14/06/2028, 15/06/2028, 16/06/2028, 19/06/2028, 19/06/2028, 19/06/2028, 20/06/2028, 21/06/2028, 22/06/2028, 23/06/2028, 26/06/2028, 26/06/2028, 26/06/2028, 27/06/2028, 28/06/2028, 29/06/2028, 30/06/2028, 03/07/2028, 03/07/2028, 03/07/2028, 04/07/2028, 05/07/2028, 06/07/2028, 07/07/2028, 10/07/2028, 10/07/2028, 10/07/2028, 11/07/2028, 12/07/2028, 13/07/2028, 14/07/2028, 17/07/2028, 17/07/2028, 17/07/2028, 18/07/2028, 19/07/2028, 20/07/2028, 21/07/2028, 24/07/2028, 24/07/2028, 24/07/2028, 25/07/2028, 26/07/2028, 27/07/2028, 28/07/2028, 31/07/2028, 31/07/2028, 31/07/2028, 01/08/2028, 02/08/2028, 03/08/2028, 04/08/2028, 07/08/2028, 07/08/2028, 07/08/2028, 08/08/2028, 09/08/2028, 10/08/2028, 11/08/2028, 14/08/2028, 14/08/2028, 14/08/2028, 15/08/2028, 16/08/2028, 17/08/2028, 18/08/2028, 21/08/2028, 21/08/2028, 21/08/2028, 22/08/2028, 23/08/2028, 24/08/2028, 25/08/2028, 28/08/2028, 28/08/2028, 28/08/2028, 29/08/2028, 30/08/2028, 31/08/2028, 01/09/2028, 04/09/2028, 04/09/2028, 04/09/2028, 05/09/2028, 06/09/2028, 07/09/2028, 08/09/2028, 11/09/2028, 11/09/2028, 11/09/2028, 12/09/2028, 13/09/2028, 14/09/2028, 15/09/2028, 18/09/2028, 18/09/2028, 18/09/2028, 19/09/2028, 20/09/2028, 21/09/2028, 22/09/2028, 25/09/2028, 25/09/2028, 25/09/2028, 26/09/2028, 27/09/2028, 28/09/2028, 29/09/2028, 02/10/2028, 02/10/2028, 02/10/2028, 03/10/2028, 04/10/2028, 05/10/2028, 06/10/2028, 09/10/2028, 09/10/2028, 09/10/2028, 10/10/2028, 11/10/2028, 12/10/2028, 13/10/2028, 16/10/2028, 16/10/2028, 16/10/2028, 17/10/2028, 18/10/2028, 19/10/2028, 20/10/2028, 23/10/2028, 23/10/2028, 23/10/2028, 24/10/2028, 25/10/2028, 26/10/2028, 27/10/2028, 30/10/2028, 30/10/2028, 30/10/2028, 31/10/2028, 01/11/2028, 02/11/2028, 03/11/2028, 06/11/2028, 06/11/2028, 06/11/2028, 07/11/2028, 08/11/2028, 09/11/2028, 10/11/2028, 13/11/2028, 13/11/2028, 13/11/2028, 14/11/2028, 15/11/2028, 16/11/2028, 17/11/2028, 20/11/2028, 20/11/2028, 20/11/2028, 21/11/2028, 22/11/2028, 23/11/2028, 24/11/2028, 27/11/2028, 27/11/2028, 27/11/2028, 28/11/2028, 29/11/2028, 30/11/2028, 01/12/2028, 04/12/2028, 04/12/2028, 04/12/2028, 05/12/2028, 06/12/2028, 07/12/2028, 08/12/2028, 11/12/2028, 11/12/2028, 11/12/2028, 12/12/2028, 13/12/2028, 14/12/2028, 15/12/2028, 18/12/2028, 18/12/2028, 18/12/2028, 19/12/2028, 20/12/2028, 21/12/2028, 22/12/2028, 27/12/2028, 27/12/2028, 27/12/2028, 28/12/2028, 29/12/2028, 02/01/2029, 03/01/2029, 04/01/2029, 04/01/2029, 04/01/2029, 05/01/2029, 08/01/2029, 09/01/2029, 10/01/2029, 11/01/2029, 11/01/2029, 11/01/2029, 11/01/2029, 11/01/2029, 12/01/2029, 15/01/2029, 16/01/2029, 16/01/2029, 16/01/2029, 16/01/2029, 17/01/2029, 18/01/2029, 19/01/2029, 22/01/2029, 22/01/2029, 22/01/2029, 23/01/2029, 24/01/2029, 25/01/2029, 26/01/2029, 29/01/2029, 29/01/2029, 29/01/2029, 30/01/2029, 31/01/2029, 01/02/2029, 02/02/2029, 05/02/2029, 05/02/2029, 05/02/2029, 06/02/2029, 07/02/2029, 08/02/2029, 09/02/2029, 12/02/2029, 12/02/2029, 12/02/2029, 13/02/2029, 14/02/2029, 15/02/2029, 16/02/2029, 19/02/2029, 19/02/2029, 19/02/2029, 20/02/2029, 21/02/2029, 22/02/2029, 23/02/2029, 26/02/2029, 26/02/2029, 26/02/2029, 27/02/2029, 28/02/2029, 01/03/2029, 02/03/2029, 05/03/2029, 05/03/2029, 05/03/2029, 06/03/2029, 07/03/2029, 08/03/2029, 09/03/2029, 12/03/2029, 12/03/2029, 12/03/2029, 13/03/2029, 14/03/2029, 15/03/2029, 16/03/2029, 19/03/2029, 19/03/2029, 19/03/2029, 20/03/2029, 21/03/2029, 22/03/2029, 23/03/2029, 26/03/2029, 26/03/2029, 26/03/2029, 27/03/2029, 28/03/2029, 29/03/2029, 03/04/2029, 04/04/2029, 04/04/2029, 04/04/2029, 05/04/2029, 06/04/2029, 09/04/2029, 10/04/2029, 11/04/2029, 11/04/2029, 11/04/2029, 12/04/2029, 13/04/2029, 16/04/2029, 17/04/2029, 17/04/2029, 17/04/2029, 17/04/2029, 17/04/2029, 18/04/2029, 19/04/2029, 20/04/2029, 23/04/2029, 23/04/2029, 23/04/2029, 24/04/2029, 25/04/2029, 26/04/2029, 27/04/2029, 30/04/2029, 30/04/2029, 30/04/2029, 02/05/2029, 03/05/2029, 04/05/2029, 07/05/2029, 08/05/2029, 08/05/2029, 08/05/2029, 09/05/2029, 10/05/2029, 11/05/2029, 14/05/2029, 15/05/2029, 15/05/2029, 15/05/2029, 16/05/2029, 16/05/2029, 17/05/2029, 18/05/2029, 21/05/2029, 21/05/2029, 21/05/2029, 22/05/2029, 23/05/2029, 24/05/2029, 25/05/2029, 28/05/2029, 28/05/2029, 28/05/2029, 29/05/2029, 30/05/2029, 31/05/2029, 01/06/2029, 04/06/2029, 04/06/2029, 04/06/2029, 05/06/2029, 06/06/2029, 07/06/2029, 08/06/2029, 11/06/2029, 11/06/2029, 11/06/2029, 12/06/2029, 13/06/2029, 14/06/2029, 15/06/2029, 18/06/2029, 18/06/2029, 18/06/2029, 19/06/2029, 20/06/2029, 21/06/2029, 22/06/2029, 25/06/2029, 25/06/2029, 25/06/2029, 26/06/2029, 27/06/2029, 28/06/2029, 29/06/2029, 02/07/2029, 02/07/2029, 02/07/2029, 03/07/2029, 04/07/2029, 05/07/2029, 06/07/2029, 09/07/2029, 09/07/2029, 09/07/2029, 10/07/2029, 11/07/2029, 12/07/2029, 13/07/2029, 16/07/2029, 16/07/2029, 16/07/2029, 17/07/2029, 18/07/2029, 19/07/2029, 20/07/2029, 23/07/2029, 23/07/2029, 23/07/2029, 24/07/2029, 25/07/2029, 26/07/2029, 27/07/2029, 30/07/2029, 30/07/2029, 30/07/2029, 31/07/2029, 01/08/2029, 02/08/2029, 03/08/2029, 06/08/2029, 06/08/2029, 06/08/2029, 07/08/2029, 08/08/2029, 09/08/2029, 10/08/2029, 13/08/2029, 13/08/2029, 13/08/2029, 14/08/2029, 15/08/2029, 16/08/2029, 17/08/2029, 20/08/2029, 20/08/2029, 20/08/2029, 21/08/2029, 22/08/2029, 23/08/2029, 24/08/2029, 27/08/2029, 27/08/2029, 27/08/2029, 28/08/2029, 29/08/2029, 30/08/2029, 31/08/2029, 03/09/2029, 03/09/2029, 03/09/2029, 04/09/2029, 05/09/2029, 06/09/2029, 07/09/2029, 10/09/2029, 10/09/2029, 10/09/2029, 11/09/2029, 12/09/2029, 13/09/2029, 14/09/2029, 17/09/2029, 17/09/2029, 17/09/2029, 18/09/2029, 19/09/2029, 20/09/2029, 21/09/2029, 24/09/2029, 24/09/2029, 24/09/2029, 25/09/2029, 26/09/2029, 27/09/2029, 28/09/2029, 01/10/2029, 01/10/2029, 01/10/2029, 02/10/2029, 03/10/2029, 04/10/2029, 05/10/2029, 08/10/2029, 08/10/2029, 08/10/2029, 09/10/2029, 10/10/2029, 11/10/2029, 12/10/2029, 15/10/2029, 15/10/2029, 15/10/2029, 16/10/2029, 17/10/2029, 18/10/2029, 19/10/2029, 22/10/2029, 22/10/2029, 22/10/2029, 23/10/2029, 24/10/2029, 25/10/2029, 26/10/2029, 29/10/2029, 29/10/2029, 29/10/2029, 30/10/2029, 31/10/2029, 01/11/2029, 02/11/2029, 05/11/2029, 05/11/2029, 05/11/2029, 06/11/2029, 07/11/2029, 08/11/2029, 09/11/2029, 12/11/2029, 12/11/2029, 12/11/2029, 13/11/2029, 14/11/2029, 15/11/2029, 16/11/2029, 19/11/2029, 19/11/2029, 19/11/2029, 20/11/2029, 21/11/2029, 22/11/2029, 23/11/2029, 26/11/2029, 26/11/2029, 26/11/2029, 27/11/2029, 28/11/2029, 29/11/2029, 30/11/2029, 03/12/2029, 03/12/2029, 03/12/2029, 04/12/2029, 05/12/2029, 06/12/2029, 07/12/2029, 10/12/2029, 10/12/2029, 10/12/2029, 11/12/2029, 12/12/2029, 13/12/2029, 14/12/2029, 17/12/2029, 17/12/2029, 17/12/2029, 18/12/2029, 19/12/2029, 20/12/2029, 21/12/2029, 24/12/2029, 24/12/2029, 24/12/2029, 27/12/2029, 28/12/2029, 31/12/2029, 02/01/2030, 03/01/2030, 03/01/2030, 03/01/2030, 04/01/2030, 07/01/2030, 08/01/2030, 09/01/2030, 10/01/2030, 10/01/2030, 10/01/2030, 11/01/2030, 11/01/2030, 11/01/2030, 14/01/2030, 15/01/2030, 15/01/2030, 15/01/2030, 16/01/2030, 16/01/2030, 17/01/2030, 18/01/2030, 21/01/2030, 21/01/2030, 21/01/2030, 22/01/2030, 23/01/2030, 24/01/2030, 25/01/2030, 28/01/2030, 28/01/2030, 28/01/2030, 29/01/2030, 30/01/2030, 31/01/2030, 01/02/2030, 04/02/2030, 04/02/2030, 04/02/2030, 05/02/2030, 06/02/2030, 07/02/2030, 08/02/2030, 11/02/2030, 11/02/2030, 11/02/2030, 12/02/2030, 13/02/2030, 14/02/2030, 15/02/2030, 18/02/2030, 18/02/2030, 18/02/2030, 19/02/2030, 20/02/2030, 21/02/2030, 22/02/2030, 25/02/2030, 25/02/2030, 25/02/2030, 26/02/2030, 27/02/2030, 28/02/2030, 01/03/2030, 04/03/2030, 04/03/2030, 04/03/2030, 05/03/2030, 06/03/2030, 07/03/2030, 08/03/2030, 11/03/2030, 11/03/2030, 11/03/2030, 12/03/2030, 13/03/2030, 14/03/2030, 15/03/2030, 18/03/2030, 18/03/2030, 18/03/2030, 19/03/2030, 20/03/2030, 21/03/2030, 22/03/2030, 25/03/2030, 25/03/2030, 25/03/2030, 26/03/2030, 27/03/2030, 28/03/2030, 29/03/2030, 01/04/2030, 01/04/2030, 01/04/2030, 02/04/2030, 03/04/2030, 04/04/2030, 05/04/2030, 08/04/2030, 08/04/2030, 08/04/2030, 09/04/2030, 10/04/2030, 11/04/2030, 12/04/2030, 15/04/2030, 15/04/2030, 15/04/2030, 16/04/2030, 17/04/2030, 18/04/2030, 23/04/2030, 24/04/2030, 24/04/2030, 24/04/2030, 25/04/2030, 26/04/2030, 29/04/2030, 30/04/2030, 02/05/2030, 02/05/2030, 02/05/2030, 03/05/2030, 06/05/2030, 07/05/2030, 08/05/2030, 08/05/2030, 08/05/2030, 08/05/2030, 08/05/2030, 09/05/2030, 10/05/2030, 13/05/2030, 14/05/2030, 14/05/2030, 14/05/2030, 15/05/2030, 16/05/2030, 16/05/2030, 17/05/2030, 20/05/2030, 20/05/2030, 20/05/2030, 21/05/2030, 22/05/2030, 23/05/2030, 24/05/2030, 27/05/2030, 27/05/2030, 27/05/2030, 28/05/2030, 29/05/2030, 30/05/2030, 31/05/2030, 03/06/2030, 03/06/2030, 03/06/2030, 04/06/2030, 05/06/2030, 06/06/2030, 07/06/2030, 10/06/2030, 10/06/2030, 10/06/2030, 11/06/2030, 12/06/2030, 13/06/2030, 14/06/2030, 17/06/2030, 17/06/2030, 17/06/2030, 18/06/2030, 19/06/2030, 20/06/2030, 21/06/2030, 24/06/2030, 24/06/2030, 24/06/2030, 25/06/2030, 26/06/2030, 27/06/2030, 28/06/2030, 01/07/2030, 01/07/2030, 01/07/2030, 02/07/2030, 03/07/2030, 04/07/2030, 05/07/2030, 08/07/2030, 08/07/2030, 08/07/2030, 09/07/2030, 10/07/2030, 11/07/2030, 12/07/2030, 15/07/2030, 15/07/2030, 15/07/2030, 16/07/2030, 17/07/2030, 18/07/2030, 19/07/2030, 22/07/2030, 22/07/2030, 22/07/2030, 23/07/2030, 24/07/2030, 25/07/2030, 26/07/2030, 29/07/2030, 29/07/2030, 29/07/2030, 30/07/2030, 31/07/2030, 01/08/2030, 02/08/2030, 05/08/2030, 05/08/2030, 05/08/2030, 06/08/2030, 07/08/2030, 08/08/2030, 09/08/2030, 12/08/2030, 12/08/2030, 12/08/2030, 13/08/2030, 14/08/2030, 15/08/2030, 16/08/2030, 19/08/2030, 19/08/2030, 19/08/2030, 20/08/2030, 21/08/2030, 22/08/2030, 23/08/2030, 26/08/2030, 26/08/2030, 26/08/2030, 27/08/2030, 28/08/2030, 29/08/2030, 30/08/2030, 02/09/2030, 02/09/2030, 02/09/2030, 03/09/2030, 04/09/2030, 05/09/2030, 06/09/2030, 09/09/2030, 09/09/2030, 09/09/2030, 10/09/2030, 11/09/2030, 12/09/2030, 13/09/2030, 16/09/2030, 16/09/2030, 16/09/2030, 17/09/2030, 18/09/2030, 19/09/2030, 20/09/2030, 23/09/2030, 23/09/2030, 23/09/2030, 24/09/2030, 25/09/2030, 26/09/2030, 27/09/2030, 30/09/2030, 30/09/2030, 30/09/2030, 01/10/2030, 02/10/2030, 03/10/2030, 04/10/2030, 07/10/2030, 07/10/2030, 07/10/2030, 08/10/2030, 09/10/2030, 10/10/2030, 11/10/2030, 14/10/2030, 14/10/2030, 14/10/2030, 15/10/2030, 16/10/2030, 17/10/2030, 18/10/2030, 21/10/2030, 21/10/2030, 21/10/2030, 22/10/2030, 23/10/2030, 24/10/2030, 25/10/2030, 28/10/2030, 28/10/2030, 28/10/2030, 29/10/2030, 30/10/2030, 31/10/2030, 01/11/2030, 04/11/2030, 04/11/2030, 04/11/2030, 05/11/2030, 06/11/2030, 07/11/2030, 08/11/2030, 11/11/2030, 11/11/2030, 11/11/2030, 12/11/2030, 13/11/2030, 14/11/2030, 15/11/2030, 18/11/2030, 18/11/2030, 18/11/2030, 19/11/2030, 20/11/2030, 21/11/2030, 22/11/2030, 25/11/2030, 25/11/2030, 25/11/2030, 26/11/2030, 27/11/2030, 28/11/2030, 29/11/2030, 02/12/2030, 02/12/2030, 02/12/2030, 03/12/2030, 04/12/2030, 05/12/2030, 06/12/2030, 09/12/2030, 09/12/2030, 09/12/2030, 10/12/2030, 11/12/2030, 12/12/2030, 13/12/2030, 16/12/2030, 16/12/2030, 16/12/2030, 17/12/2030, 18/12/2030, 19/12/2030, 20/12/2030, 23/12/2030, 23/12/2030, 23/12/2030, 24/12/2030, 27/12/2030, 30/12/2030, 31/12/2030, 02/01/2031, 02/01/2031, 02/01/2031, 03/01/2031, 06/01/2031, 07/01/2031, 08/01/2031, 09/01/2031, 09/01/2031, 09/01/2031, 10/01/2031, 13/01/2031, 13/01/2031, 13/01/2031, 14/01/2031, 14/01/2031, 14/01/2031, 15/01/2031, 16/01/2031, 16/01/2031, 17/01/2031, 20/01/2031, 20/01/2031, 20/01/2031, 21/01/2031, 22/01/2031, 23/01/2031, 24/01/2031, 27/01/2031, 27/01/2031, 27/01/2031, 28/01/2031, 29/01/2031, 30/01/2031, 31/01/2031, 03/02/2031, 03/02/2031, 03/02/2031, 04/02/2031, 05/02/2031, 06/02/2031, 07/02/2031, 10/02/2031, 10/02/2031, 10/02/2031, 11/02/2031, 12/02/2031, 13/02/2031, 14/02/2031, 17/02/2031, 17/02/2031, 17/02/2031, 18/02/2031, 19/02/2031, 20/02/2031, 21/02/2031, 24/02/2031, 24/02/2031, 24/02/2031, 25/02/2031, 26/02/2031, 27/02/2031, 28/02/2031, 03/03/2031, 03/03/2031, 03/03/2031, 04/03/2031, 05/03/2031, 06/03/2031, 07/03/2031, 10/03/2031, 10/03/2031, 10/03/2031, 11/03/2031, 12/03/2031, 13/03/2031, 14/03/2031, 17/03/2031, 17/03/2031, 17/03/2031, 18/03/2031, 19/03/2031, 20/03/2031, 21/03/2031, 24/03/2031, 24/03/2031, 24/03/2031, 25/03/2031, 26/03/2031, 27/03/2031, 28/03/2031, 31/03/2</t>
+          <t>Le 10e jour ouvré suivant la date de constatation quotidienne.</t>
         </is>
       </c>
     </row>
